--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2204760.326082061</v>
+        <v>2201797.674048716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11999031.73675954</v>
+        <v>11999031.73675955</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673395</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9495362.238162056</v>
+        <v>9495362.238162052</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="G8" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>11.41434143004694</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4.538295688335379</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.41434143004682</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="H9" t="n">
-        <v>12.95906156908131</v>
+        <v>11.41434143004694</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="C10" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="F10" t="n">
-        <v>11.41434143004682</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.41434143004694</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.0019462693868</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>284.9303701244958</v>
       </c>
       <c r="I11" t="n">
-        <v>5.147026946850133</v>
+        <v>5.147026946850275</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.65488037583675</v>
+        <v>68.92298498173905</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.4938802569838</v>
       </c>
       <c r="H12" t="n">
-        <v>84.71395095793706</v>
+        <v>84.71395095793707</v>
       </c>
       <c r="I12" t="n">
-        <v>1.409881254908584</v>
+        <v>1.40988125490864</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.601939501786</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.9864363272033</v>
       </c>
       <c r="I13" t="n">
-        <v>83.60553087386198</v>
+        <v>83.60553087386204</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>69.8734720035003</v>
       </c>
       <c r="S13" t="n">
         <v>182.382148898411</v>
       </c>
       <c r="T13" t="n">
-        <v>217.7378736770432</v>
+        <v>59.98570983971153</v>
       </c>
       <c r="U13" t="n">
         <v>286.1887180915814</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.44704027362317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>369.1489732162324</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>284.9303701244958</v>
       </c>
       <c r="I14" t="n">
-        <v>5.147026946850104</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.65488037583673</v>
+        <v>87.65488037583684</v>
       </c>
       <c r="T14" t="n">
-        <v>199.7814835402778</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.4061976098079</v>
+        <v>250.9195765441795</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.4938802569838</v>
       </c>
       <c r="H15" t="n">
-        <v>84.71395095793706</v>
+        <v>84.71395095793707</v>
       </c>
       <c r="I15" t="n">
-        <v>1.409881254908555</v>
+        <v>1.40988125490864</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.601939501786</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.9864363272033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83.60553087386204</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.87347200350021</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0989953491321</v>
+        <v>217.7378736770432</v>
       </c>
       <c r="U16" t="n">
         <v>286.1887180915814</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>24.53427673069764</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>188.3626668073338</v>
       </c>
       <c r="G17" t="n">
-        <v>409.9767829694231</v>
+        <v>409.9767829694232</v>
       </c>
       <c r="H17" t="n">
-        <v>284.9303701244957</v>
+        <v>284.9303701244958</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.147026946850275</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.65488037583665</v>
+        <v>87.65488037583684</v>
       </c>
       <c r="T17" t="n">
-        <v>199.7814835402777</v>
+        <v>199.7814835402778</v>
       </c>
       <c r="U17" t="n">
         <v>250.9195765441795</v>
       </c>
       <c r="V17" t="n">
-        <v>114.3859064826157</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.4938802569838</v>
       </c>
       <c r="H18" t="n">
-        <v>84.71395095793706</v>
+        <v>84.71395095793707</v>
       </c>
       <c r="I18" t="n">
-        <v>1.409881254908555</v>
+        <v>1.40988125490864</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.2553586430765</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>95.18717179329987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6019395017859</v>
+        <v>165.601939501786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.9864363272033</v>
       </c>
       <c r="I19" t="n">
-        <v>83.60553087386189</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.7378736770432</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1887180915814</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.9767829694231</v>
+        <v>409.9767829694232</v>
       </c>
       <c r="H20" t="n">
-        <v>284.9303701244957</v>
+        <v>284.9303701244958</v>
       </c>
       <c r="I20" t="n">
-        <v>5.147026946850048</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.65488037583665</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.7814835402778</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9195765441795</v>
+        <v>125.2081049324911</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.5060432619615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.4938802569838</v>
       </c>
       <c r="H21" t="n">
-        <v>84.71395095793706</v>
+        <v>84.71395095793707</v>
       </c>
       <c r="I21" t="n">
-        <v>1.409881254908555</v>
+        <v>1.40988125490864</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>2.202635362761389</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.601939501786</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9864363272033</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>83.60553087386191</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>69.8734720035003</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>182.382148898411</v>
       </c>
       <c r="T22" t="n">
         <v>217.7378736770432</v>
       </c>
       <c r="U22" t="n">
-        <v>187.6204256158338</v>
+        <v>286.1887180915814</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
         <v>283.5630920045443</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440896</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108349</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>139.9674716903423</v>
+        <v>228.8088289891202</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045446</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440902</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108349</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>9.694898626997182</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.96502443909466</v>
+        <v>103.1983720868901</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.828796155982</v>
+        <v>132.0452568097376</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7623599029617844</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H34" t="n">
         <v>136.8617379250047</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.5884997241343</v>
       </c>
       <c r="S34" t="n">
         <v>177.7462364915097</v>
@@ -3253,7 +3253,7 @@
         <v>222.1174035220879</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.9924014851455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E35" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G35" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H35" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387036</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U35" t="n">
         <v>247.316644120697</v>
@@ -3326,10 +3326,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y35" t="n">
         <v>382.6456867891043</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.91880865228181</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F37" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745976</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S37" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5931996814712</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V37" t="n">
         <v>248.5453914568787</v>
       </c>
       <c r="W37" t="n">
-        <v>282.9307464696417</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>222.1174035220879</v>
+        <v>137.4304983807207</v>
       </c>
       <c r="Y37" t="n">
         <v>214.9924014851455</v>
@@ -3503,22 +3503,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E38" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F38" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G38" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H38" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387036</v>
+        <v>81.02033873387188</v>
       </c>
       <c r="T38" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U38" t="n">
         <v>247.316644120697</v>
@@ -3563,10 +3563,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W38" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y38" t="n">
         <v>382.6456867891043</v>
@@ -3661,25 +3661,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0232211512631</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E40" t="n">
-        <v>13.3643703889724</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>64.13170164660177</v>
       </c>
       <c r="G40" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T40" t="n">
-        <v>213.8897425958125</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5931996814712</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V40" t="n">
         <v>248.5453914568787</v>
@@ -3724,7 +3724,7 @@
         <v>282.9307464696417</v>
       </c>
       <c r="X40" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y40" t="n">
         <v>214.9924014851455</v>
@@ -3740,22 +3740,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053107</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458103</v>
       </c>
       <c r="H41" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873387037</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T41" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U41" t="n">
         <v>247.316644120697</v>
@@ -3800,10 +3800,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y41" t="n">
         <v>382.6456867891043</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C43" t="n">
-        <v>147.8341855348587</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>142.8417107796199</v>
       </c>
       <c r="F43" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745978</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413431</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5931996814712</v>
+        <v>197.9062945401035</v>
       </c>
       <c r="V43" t="n">
         <v>248.5453914568787</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y43" t="n">
         <v>214.9924014851455</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873386952</v>
       </c>
       <c r="T44" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705249</v>
       </c>
       <c r="U44" t="n">
         <v>247.316644120697</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316785</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E46" t="n">
         <v>142.8417107796199</v>
       </c>
       <c r="F46" t="n">
-        <v>141.8287961559819</v>
+        <v>71.50505515198691</v>
       </c>
       <c r="G46" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413424</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>177.7462364915096</v>
@@ -4195,10 +4195,10 @@
         <v>248.5453914568787</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X46" t="n">
-        <v>137.4304983807209</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y46" t="n">
         <v>214.9924014851455</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.0721868556202</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0721868556202</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="D8" t="n">
-        <v>21.0721868556202</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0721868556202</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="F8" t="n">
-        <v>14.12668610641672</v>
+        <v>14.12668610641688</v>
       </c>
       <c r="G8" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="H8" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="I8" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="J8" t="n">
-        <v>1.036724925526505</v>
+        <v>13.86619587891716</v>
       </c>
       <c r="K8" t="n">
-        <v>13.86619587891701</v>
+        <v>26.6956668323078</v>
       </c>
       <c r="L8" t="n">
-        <v>26.69566683230751</v>
+        <v>39.52513778569843</v>
       </c>
       <c r="M8" t="n">
-        <v>26.69566683230751</v>
+        <v>39.52513778569843</v>
       </c>
       <c r="N8" t="n">
-        <v>39.52513778569801</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="O8" t="n">
-        <v>39.52513778569801</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="P8" t="n">
-        <v>39.52513778569801</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="R8" t="n">
-        <v>51.83624627632526</v>
+        <v>38.74628509543545</v>
       </c>
       <c r="S8" t="n">
-        <v>51.83624627632526</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="T8" t="n">
-        <v>51.83624627632526</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="U8" t="n">
-        <v>47.25210921740063</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="V8" t="n">
-        <v>47.25210921740063</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="W8" t="n">
-        <v>47.25210921740063</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="X8" t="n">
-        <v>47.25210921740063</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.16214803651042</v>
+        <v>27.21664728730724</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="C9" t="n">
-        <v>27.21664728730694</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="D9" t="n">
-        <v>27.21664728730694</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="E9" t="n">
-        <v>14.12668610641672</v>
+        <v>38.74628509543545</v>
       </c>
       <c r="F9" t="n">
-        <v>14.12668610641672</v>
+        <v>25.65632391454509</v>
       </c>
       <c r="G9" t="n">
-        <v>14.12668610641672</v>
+        <v>12.56636273365473</v>
       </c>
       <c r="H9" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="I9" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="J9" t="n">
-        <v>1.036724925526505</v>
+        <v>13.34783341615389</v>
       </c>
       <c r="K9" t="n">
-        <v>1.036724925526505</v>
+        <v>13.34783341615389</v>
       </c>
       <c r="L9" t="n">
-        <v>13.86619587891701</v>
+        <v>13.34783341615389</v>
       </c>
       <c r="M9" t="n">
-        <v>26.69566683230751</v>
+        <v>26.17730436954454</v>
       </c>
       <c r="N9" t="n">
-        <v>39.52513778569801</v>
+        <v>39.00677532293518</v>
       </c>
       <c r="O9" t="n">
-        <v>42.53352636895275</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="P9" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="Q9" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="R9" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="S9" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="T9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="U9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="V9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="W9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="X9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.74628509543504</v>
+        <v>51.83624627632582</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.65632391454482</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="C10" t="n">
-        <v>12.56636273365461</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="D10" t="n">
-        <v>12.56636273365461</v>
+        <v>27.21664728730724</v>
       </c>
       <c r="E10" t="n">
-        <v>12.56636273365461</v>
+        <v>14.12668610641688</v>
       </c>
       <c r="F10" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="G10" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="H10" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="I10" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="J10" t="n">
-        <v>1.036724925526505</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="K10" t="n">
-        <v>13.34783341615375</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="L10" t="n">
-        <v>13.34783341615375</v>
+        <v>1.036724925526516</v>
       </c>
       <c r="M10" t="n">
-        <v>26.17730436954426</v>
+        <v>13.86619587891716</v>
       </c>
       <c r="N10" t="n">
-        <v>39.00677532293476</v>
+        <v>26.6956668323078</v>
       </c>
       <c r="O10" t="n">
-        <v>51.83624627632526</v>
+        <v>39.52513778569843</v>
       </c>
       <c r="P10" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.83624627632526</v>
+        <v>51.83624627632582</v>
       </c>
       <c r="R10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="S10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="T10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="U10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="V10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="W10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="X10" t="n">
-        <v>51.83624627632526</v>
+        <v>40.3066084681976</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.74628509543504</v>
+        <v>40.3066084681976</v>
       </c>
     </row>
     <row r="11">
@@ -5027,64 +5027,64 @@
         <v>1207.667208045753</v>
       </c>
       <c r="F11" t="n">
-        <v>796.681303256145</v>
+        <v>796.6813032561452</v>
       </c>
       <c r="G11" t="n">
         <v>382.5633406607681</v>
       </c>
       <c r="H11" t="n">
-        <v>94.75488598956019</v>
+        <v>94.75488598956025</v>
       </c>
       <c r="I11" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J11" t="n">
-        <v>357.8338206679809</v>
+        <v>357.8338206679791</v>
       </c>
       <c r="K11" t="n">
-        <v>810.6514447721029</v>
+        <v>810.6514447720995</v>
       </c>
       <c r="L11" t="n">
-        <v>1409.313510204513</v>
+        <v>1409.313510204509</v>
       </c>
       <c r="M11" t="n">
-        <v>2107.109845272989</v>
+        <v>2107.109845272985</v>
       </c>
       <c r="N11" t="n">
-        <v>2820.811062945315</v>
+        <v>2820.81106294531</v>
       </c>
       <c r="O11" t="n">
-        <v>3481.403623362013</v>
+        <v>3481.403623362008</v>
       </c>
       <c r="P11" t="n">
-        <v>4010.703089469675</v>
+        <v>4010.70308946967</v>
       </c>
       <c r="Q11" t="n">
-        <v>4360.012198702727</v>
+        <v>4360.012198702722</v>
       </c>
       <c r="R11" t="n">
-        <v>4477.793443576486</v>
+        <v>4477.793443576482</v>
       </c>
       <c r="S11" t="n">
-        <v>4389.25316036857</v>
+        <v>4408.174266827251</v>
       </c>
       <c r="T11" t="n">
-        <v>4389.25316036857</v>
+        <v>4408.174266827251</v>
       </c>
       <c r="U11" t="n">
-        <v>4135.799042647177</v>
+        <v>4154.720149105858</v>
       </c>
       <c r="V11" t="n">
-        <v>3804.736155303606</v>
+        <v>3823.657261762287</v>
       </c>
       <c r="W11" t="n">
-        <v>3451.967500033491</v>
+        <v>3470.888606492173</v>
       </c>
       <c r="X11" t="n">
-        <v>3078.501741772412</v>
+        <v>3097.422848231093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2688.3624097966</v>
+        <v>2707.283516255281</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.549638783495</v>
       </c>
       <c r="H12" t="n">
-        <v>90.97999135123537</v>
+        <v>90.97999135123534</v>
       </c>
       <c r="I12" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="K12" t="n">
-        <v>408.6451739219526</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="L12" t="n">
-        <v>884.0226637834431</v>
+        <v>564.9333587330198</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.122640516427</v>
+        <v>1139.033335466003</v>
       </c>
       <c r="N12" t="n">
-        <v>2023.297999113433</v>
+        <v>1742.73667521106</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.348816760659</v>
+        <v>2272.787492858286</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.348816760659</v>
+        <v>2331.814658221443</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.348816760659</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.0836275029927</v>
+        <v>1097.546991587885</v>
       </c>
       <c r="C13" t="n">
-        <v>636.0836275029927</v>
+        <v>928.6108086599783</v>
       </c>
       <c r="D13" t="n">
-        <v>636.0836275029927</v>
+        <v>778.4941692476425</v>
       </c>
       <c r="E13" t="n">
-        <v>488.1705339205996</v>
+        <v>630.5810756652494</v>
       </c>
       <c r="F13" t="n">
-        <v>341.2805864226892</v>
+        <v>483.6911281673391</v>
       </c>
       <c r="G13" t="n">
-        <v>174.0059000572489</v>
+        <v>316.4164418018987</v>
       </c>
       <c r="H13" t="n">
         <v>174.0059000572489</v>
       </c>
       <c r="I13" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J13" t="n">
-        <v>164.3463472441223</v>
+        <v>164.3463472441221</v>
       </c>
       <c r="K13" t="n">
-        <v>417.0869146510025</v>
+        <v>417.0869146510022</v>
       </c>
       <c r="L13" t="n">
-        <v>796.0342600029569</v>
+        <v>796.0342600029562</v>
       </c>
       <c r="M13" t="n">
-        <v>1205.970226432659</v>
+        <v>1205.970226432658</v>
       </c>
       <c r="N13" t="n">
-        <v>1611.593448254454</v>
+        <v>1611.593448254452</v>
       </c>
       <c r="O13" t="n">
-        <v>1970.23585011329</v>
+        <v>1970.235850113289</v>
       </c>
       <c r="P13" t="n">
-        <v>2253.595700064107</v>
+        <v>2253.595700064106</v>
       </c>
       <c r="Q13" t="n">
-        <v>2366.344292323248</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="R13" t="n">
-        <v>2366.344292323248</v>
+        <v>2295.765027673246</v>
       </c>
       <c r="S13" t="n">
-        <v>2182.11989949657</v>
+        <v>2111.540634846568</v>
       </c>
       <c r="T13" t="n">
-        <v>1962.182653358142</v>
+        <v>2050.949008745849</v>
       </c>
       <c r="U13" t="n">
-        <v>1673.103140134323</v>
+        <v>1761.869495522029</v>
       </c>
       <c r="V13" t="n">
-        <v>1418.418651928436</v>
+        <v>1507.185007316142</v>
       </c>
       <c r="W13" t="n">
-        <v>1129.001481891475</v>
+        <v>1507.185007316142</v>
       </c>
       <c r="X13" t="n">
-        <v>901.0119309934579</v>
+        <v>1279.195456418125</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.7320923332325</v>
+        <v>1279.195456418125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2320.683676191159</v>
+        <v>2315.484659073129</v>
       </c>
       <c r="C14" t="n">
-        <v>1951.721159250747</v>
+        <v>1946.522142132717</v>
       </c>
       <c r="D14" t="n">
-        <v>1593.455460643997</v>
+        <v>1588.256443525966</v>
       </c>
       <c r="E14" t="n">
-        <v>1207.667208045752</v>
+        <v>1202.468190927722</v>
       </c>
       <c r="F14" t="n">
-        <v>796.6813032561449</v>
+        <v>791.4822861381144</v>
       </c>
       <c r="G14" t="n">
-        <v>382.5633406607679</v>
+        <v>377.3643235427376</v>
       </c>
       <c r="H14" t="n">
-        <v>94.75488598956014</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="I14" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J14" t="n">
-        <v>357.8338206679798</v>
+        <v>357.8338206679796</v>
       </c>
       <c r="K14" t="n">
-        <v>810.6514447721007</v>
+        <v>810.6514447720997</v>
       </c>
       <c r="L14" t="n">
-        <v>1409.313510204511</v>
+        <v>1409.313510204509</v>
       </c>
       <c r="M14" t="n">
-        <v>2107.109845272988</v>
+        <v>2107.109845272985</v>
       </c>
       <c r="N14" t="n">
-        <v>2820.811062945314</v>
+        <v>2820.81106294531</v>
       </c>
       <c r="O14" t="n">
-        <v>3481.403623362012</v>
+        <v>3481.403623362008</v>
       </c>
       <c r="P14" t="n">
-        <v>4010.703089469675</v>
+        <v>4010.70308946967</v>
       </c>
       <c r="Q14" t="n">
-        <v>4360.012198702727</v>
+        <v>4360.012198702721</v>
       </c>
       <c r="R14" t="n">
-        <v>4477.793443576486</v>
+        <v>4477.793443576481</v>
       </c>
       <c r="S14" t="n">
-        <v>4389.25316036857</v>
+        <v>4389.253160368565</v>
       </c>
       <c r="T14" t="n">
-        <v>4187.453682045058</v>
+        <v>4389.253160368565</v>
       </c>
       <c r="U14" t="n">
-        <v>4154.720149105858</v>
+        <v>4135.799042647172</v>
       </c>
       <c r="V14" t="n">
-        <v>3823.657261762287</v>
+        <v>3804.736155303601</v>
       </c>
       <c r="W14" t="n">
-        <v>3470.888606492173</v>
+        <v>3451.967500033487</v>
       </c>
       <c r="X14" t="n">
-        <v>3097.422848231093</v>
+        <v>3078.501741772407</v>
       </c>
       <c r="Y14" t="n">
-        <v>2707.283516255281</v>
+        <v>2688.362409796596</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.549638783495</v>
       </c>
       <c r="H15" t="n">
-        <v>90.97999135123534</v>
+        <v>90.97999135123533</v>
       </c>
       <c r="I15" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="K15" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="L15" t="n">
-        <v>564.9333587330203</v>
+        <v>564.9333587330198</v>
       </c>
       <c r="M15" t="n">
-        <v>1139.033335466004</v>
+        <v>1139.033335466003</v>
       </c>
       <c r="N15" t="n">
-        <v>1742.736675211062</v>
+        <v>1742.73667521106</v>
       </c>
       <c r="O15" t="n">
-        <v>2272.787492858288</v>
+        <v>2272.787492858286</v>
       </c>
       <c r="P15" t="n">
-        <v>2522.413343912607</v>
+        <v>2300.87918537339</v>
       </c>
       <c r="Q15" t="n">
         <v>2522.413343912607</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.7502357296094</v>
+        <v>947.4303521755494</v>
       </c>
       <c r="C16" t="n">
-        <v>701.7502357296094</v>
+        <v>778.4941692476425</v>
       </c>
       <c r="D16" t="n">
-        <v>551.6335963172736</v>
+        <v>778.4941692476425</v>
       </c>
       <c r="E16" t="n">
-        <v>403.7205027348805</v>
+        <v>630.5810756652494</v>
       </c>
       <c r="F16" t="n">
-        <v>256.8305552369701</v>
+        <v>483.6911281673391</v>
       </c>
       <c r="G16" t="n">
-        <v>89.55586887152973</v>
+        <v>316.4164418018987</v>
       </c>
       <c r="H16" t="n">
-        <v>89.55586887152973</v>
+        <v>174.0059000572489</v>
       </c>
       <c r="I16" t="n">
-        <v>89.55586887152973</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J16" t="n">
-        <v>164.3463472441223</v>
+        <v>164.3463472441221</v>
       </c>
       <c r="K16" t="n">
-        <v>417.0869146510026</v>
+        <v>417.0869146510021</v>
       </c>
       <c r="L16" t="n">
-        <v>796.034260002957</v>
+        <v>796.0342600029562</v>
       </c>
       <c r="M16" t="n">
-        <v>1205.97022643266</v>
+        <v>1205.970226432658</v>
       </c>
       <c r="N16" t="n">
-        <v>1611.593448254454</v>
+        <v>1611.593448254452</v>
       </c>
       <c r="O16" t="n">
-        <v>1970.23585011329</v>
+        <v>1970.235850113289</v>
       </c>
       <c r="P16" t="n">
-        <v>2253.595700064108</v>
+        <v>2253.595700064106</v>
       </c>
       <c r="Q16" t="n">
-        <v>2366.344292323248</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="R16" t="n">
-        <v>2295.765027673247</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="S16" t="n">
-        <v>2295.765027673247</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="T16" t="n">
-        <v>2165.362002068064</v>
+        <v>2146.407046184819</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.282488844244</v>
+        <v>1857.327532960999</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.598000638357</v>
+        <v>1602.643044755112</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.180830601397</v>
+        <v>1577.860947047337</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.191279703379</v>
+        <v>1349.871396149319</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.3987005598491</v>
+        <v>1129.078817005789</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2315.484659073128</v>
+        <v>2099.963091408959</v>
       </c>
       <c r="C17" t="n">
-        <v>1946.522142132716</v>
+        <v>1731.000574468548</v>
       </c>
       <c r="D17" t="n">
-        <v>1588.256443525966</v>
+        <v>1372.734875861797</v>
       </c>
       <c r="E17" t="n">
-        <v>1202.468190927722</v>
+        <v>986.946623263553</v>
       </c>
       <c r="F17" t="n">
-        <v>791.4822861381144</v>
+        <v>796.6813032561452</v>
       </c>
       <c r="G17" t="n">
-        <v>377.3643235427376</v>
+        <v>382.5633406607681</v>
       </c>
       <c r="H17" t="n">
-        <v>89.55586887152975</v>
+        <v>94.75488598956021</v>
       </c>
       <c r="I17" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J17" t="n">
-        <v>357.83382066798</v>
+        <v>357.8338206679787</v>
       </c>
       <c r="K17" t="n">
-        <v>810.6514447721011</v>
+        <v>810.651444772099</v>
       </c>
       <c r="L17" t="n">
-        <v>1409.313510204511</v>
+        <v>1409.313510204508</v>
       </c>
       <c r="M17" t="n">
-        <v>2107.109845272988</v>
+        <v>2107.109845272984</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.811062945314</v>
+        <v>2820.811062945311</v>
       </c>
       <c r="O17" t="n">
-        <v>3481.403623362013</v>
+        <v>3481.403623362008</v>
       </c>
       <c r="P17" t="n">
-        <v>4010.703089469675</v>
+        <v>4010.70308946967</v>
       </c>
       <c r="Q17" t="n">
-        <v>4360.012198702728</v>
+        <v>4360.012198702721</v>
       </c>
       <c r="R17" t="n">
-        <v>4477.793443576487</v>
+        <v>4477.793443576481</v>
       </c>
       <c r="S17" t="n">
-        <v>4389.253160368571</v>
+        <v>4389.253160368565</v>
       </c>
       <c r="T17" t="n">
-        <v>4187.453682045058</v>
+        <v>4187.453682045052</v>
       </c>
       <c r="U17" t="n">
-        <v>3933.999564323665</v>
+        <v>3933.999564323658</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.458244644256</v>
+        <v>3602.936676980087</v>
       </c>
       <c r="W17" t="n">
-        <v>3465.689589374141</v>
+        <v>3250.168021709973</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.223831113061</v>
+        <v>2876.702263448893</v>
       </c>
       <c r="Y17" t="n">
-        <v>2702.08449913725</v>
+        <v>2486.562931473081</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.549638783495</v>
       </c>
       <c r="H18" t="n">
-        <v>90.97999135123537</v>
+        <v>90.97999135123533</v>
       </c>
       <c r="I18" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="K18" t="n">
-        <v>89.55586887152975</v>
+        <v>117.6475613866343</v>
       </c>
       <c r="L18" t="n">
-        <v>439.415237611228</v>
+        <v>593.0250512481244</v>
       </c>
       <c r="M18" t="n">
-        <v>1013.515214344212</v>
+        <v>1167.125027981108</v>
       </c>
       <c r="N18" t="n">
-        <v>1617.218554089269</v>
+        <v>1770.828367726165</v>
       </c>
       <c r="O18" t="n">
-        <v>2147.269371736495</v>
+        <v>2300.87918537339</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.348816760659</v>
+        <v>2300.87918537339</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.348816760659</v>
+        <v>2522.413343912607</v>
       </c>
       <c r="R18" t="n">
         <v>2553.348816760659</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>753.2553752255762</v>
+        <v>862.9803209898301</v>
       </c>
       <c r="C19" t="n">
-        <v>584.31919229767</v>
+        <v>694.0441380619233</v>
       </c>
       <c r="D19" t="n">
-        <v>584.31919229767</v>
+        <v>694.0441380619233</v>
       </c>
       <c r="E19" t="n">
-        <v>488.1705339205995</v>
+        <v>546.1310444795301</v>
       </c>
       <c r="F19" t="n">
-        <v>341.2805864226892</v>
+        <v>399.2410969816198</v>
       </c>
       <c r="G19" t="n">
-        <v>174.0059000572489</v>
+        <v>231.9664106161794</v>
       </c>
       <c r="H19" t="n">
-        <v>174.0059000572489</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="I19" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152963</v>
       </c>
       <c r="J19" t="n">
-        <v>164.3463472441223</v>
+        <v>164.3463472441221</v>
       </c>
       <c r="K19" t="n">
-        <v>417.0869146510027</v>
+        <v>417.0869146510021</v>
       </c>
       <c r="L19" t="n">
-        <v>796.0342600029576</v>
+        <v>796.0342600029562</v>
       </c>
       <c r="M19" t="n">
-        <v>1205.97022643266</v>
+        <v>1205.970226432658</v>
       </c>
       <c r="N19" t="n">
-        <v>1611.593448254454</v>
+        <v>1611.593448254452</v>
       </c>
       <c r="O19" t="n">
-        <v>1970.235850113291</v>
+        <v>1970.235850113288</v>
       </c>
       <c r="P19" t="n">
-        <v>2253.595700064109</v>
+        <v>2253.595700064106</v>
       </c>
       <c r="Q19" t="n">
-        <v>2366.344292323249</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="R19" t="n">
-        <v>2366.344292323249</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="S19" t="n">
-        <v>2182.119899496571</v>
+        <v>2182.119899496568</v>
       </c>
       <c r="T19" t="n">
-        <v>1962.182653358144</v>
+        <v>1962.182653358141</v>
       </c>
       <c r="U19" t="n">
-        <v>1673.103140134324</v>
+        <v>1962.182653358141</v>
       </c>
       <c r="V19" t="n">
-        <v>1673.103140134324</v>
+        <v>1707.498165152254</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.685970097363</v>
+        <v>1418.080995115293</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.696419199346</v>
+        <v>1190.091444217276</v>
       </c>
       <c r="Y19" t="n">
-        <v>934.9038400558159</v>
+        <v>969.2988650737458</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2320.683676191158</v>
+        <v>2315.484659073129</v>
       </c>
       <c r="C20" t="n">
-        <v>1951.721159250747</v>
+        <v>1946.522142132717</v>
       </c>
       <c r="D20" t="n">
-        <v>1593.455460643997</v>
+        <v>1588.256443525966</v>
       </c>
       <c r="E20" t="n">
-        <v>1207.667208045752</v>
+        <v>1202.468190927722</v>
       </c>
       <c r="F20" t="n">
-        <v>796.6813032561449</v>
+        <v>791.4822861381144</v>
       </c>
       <c r="G20" t="n">
-        <v>382.5633406607679</v>
+        <v>377.3643235427376</v>
       </c>
       <c r="H20" t="n">
-        <v>94.75488598956014</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="I20" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J20" t="n">
-        <v>357.8338206679799</v>
+        <v>357.83382066798</v>
       </c>
       <c r="K20" t="n">
-        <v>810.6514447721008</v>
+        <v>810.6514447721006</v>
       </c>
       <c r="L20" t="n">
         <v>1409.31351020451</v>
       </c>
       <c r="M20" t="n">
-        <v>2107.109845272987</v>
+        <v>2107.109845272986</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.811062945313</v>
+        <v>2820.811062945311</v>
       </c>
       <c r="O20" t="n">
-        <v>3481.403623362011</v>
+        <v>3481.403623362009</v>
       </c>
       <c r="P20" t="n">
-        <v>4010.703089469674</v>
+        <v>4010.703089469671</v>
       </c>
       <c r="Q20" t="n">
-        <v>4360.012198702727</v>
+        <v>4360.012198702722</v>
       </c>
       <c r="R20" t="n">
-        <v>4477.793443576487</v>
+        <v>4477.793443576482</v>
       </c>
       <c r="S20" t="n">
-        <v>4389.253160368572</v>
+        <v>4477.793443576482</v>
       </c>
       <c r="T20" t="n">
-        <v>4389.253160368572</v>
+        <v>4275.993965252968</v>
       </c>
       <c r="U20" t="n">
-        <v>4135.799042647179</v>
+        <v>4149.521131987826</v>
       </c>
       <c r="V20" t="n">
-        <v>3804.736155303608</v>
+        <v>3818.458244644256</v>
       </c>
       <c r="W20" t="n">
-        <v>3451.967500033494</v>
+        <v>3465.689589374142</v>
       </c>
       <c r="X20" t="n">
-        <v>3078.501741772414</v>
+        <v>3092.223831113062</v>
       </c>
       <c r="Y20" t="n">
-        <v>2707.28351625528</v>
+        <v>2702.084499137251</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.549638783495</v>
       </c>
       <c r="H21" t="n">
-        <v>90.97999135123537</v>
+        <v>90.97999135123534</v>
       </c>
       <c r="I21" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J21" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="K21" t="n">
-        <v>408.6451739219527</v>
+        <v>117.6475613866343</v>
       </c>
       <c r="L21" t="n">
-        <v>884.0226637834432</v>
+        <v>593.0250512481244</v>
       </c>
       <c r="M21" t="n">
-        <v>884.0226637834432</v>
+        <v>1167.125027981108</v>
       </c>
       <c r="N21" t="n">
-        <v>1487.726003528501</v>
+        <v>1770.828367726165</v>
       </c>
       <c r="O21" t="n">
-        <v>1894.799740349226</v>
+        <v>2300.87918537339</v>
       </c>
       <c r="P21" t="n">
         <v>2300.87918537339</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.3592116400514</v>
+        <v>427.9916223696864</v>
       </c>
       <c r="C22" t="n">
-        <v>613.4230287121445</v>
+        <v>259.0554394417795</v>
       </c>
       <c r="D22" t="n">
-        <v>463.306389299809</v>
+        <v>259.0554394417795</v>
       </c>
       <c r="E22" t="n">
-        <v>463.306389299809</v>
+        <v>259.0554394417795</v>
       </c>
       <c r="F22" t="n">
-        <v>316.4164418018986</v>
+        <v>256.83055523697</v>
       </c>
       <c r="G22" t="n">
-        <v>316.4164418018986</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="H22" t="n">
-        <v>174.0059000572489</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="I22" t="n">
-        <v>89.55586887152975</v>
+        <v>89.55586887152964</v>
       </c>
       <c r="J22" t="n">
-        <v>164.3463472441224</v>
+        <v>164.3463472441221</v>
       </c>
       <c r="K22" t="n">
-        <v>417.0869146510028</v>
+        <v>417.0869146510021</v>
       </c>
       <c r="L22" t="n">
-        <v>796.0342600029571</v>
+        <v>796.0342600029562</v>
       </c>
       <c r="M22" t="n">
-        <v>1205.97022643266</v>
+        <v>1205.970226432658</v>
       </c>
       <c r="N22" t="n">
-        <v>1611.593448254454</v>
+        <v>1611.593448254452</v>
       </c>
       <c r="O22" t="n">
-        <v>1970.23585011329</v>
+        <v>1970.235850113289</v>
       </c>
       <c r="P22" t="n">
-        <v>2253.595700064108</v>
+        <v>2253.595700064106</v>
       </c>
       <c r="Q22" t="n">
-        <v>2366.344292323248</v>
+        <v>2366.344292323246</v>
       </c>
       <c r="R22" t="n">
-        <v>2366.344292323248</v>
+        <v>2295.765027673246</v>
       </c>
       <c r="S22" t="n">
-        <v>2366.344292323248</v>
+        <v>2111.540634846568</v>
       </c>
       <c r="T22" t="n">
-        <v>2146.407046184821</v>
+        <v>1891.60338870814</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.891464754686</v>
+        <v>1602.523875484321</v>
       </c>
       <c r="V22" t="n">
-        <v>1702.206976548799</v>
+        <v>1347.839387278434</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.789806511839</v>
+        <v>1058.422217241474</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.800255613821</v>
+        <v>830.4326663434563</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0076764702911</v>
+        <v>609.6400871999261</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1205.244725685963</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
         <v>373.34422365072</v>
@@ -5993,40 +5993,40 @@
         <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294975</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234013</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
         <v>3095.000365871303</v>
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1868.341358050533</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>932.2078141341353</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="C25" t="n">
-        <v>763.2716312062284</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="D25" t="n">
-        <v>613.1549917938928</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>465.2418982114997</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135897</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135897</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948587</v>
@@ -6163,13 +6163,13 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S25" t="n">
         <v>2178.382964033126</v>
@@ -6178,19 +6178,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.322897211809</v>
+        <v>1727.584152465568</v>
       </c>
       <c r="V25" t="n">
-        <v>1562.638409005922</v>
+        <v>1472.899664259681</v>
       </c>
       <c r="W25" t="n">
-        <v>1562.638409005922</v>
+        <v>1183.482494222721</v>
       </c>
       <c r="X25" t="n">
-        <v>1334.648858107905</v>
+        <v>955.4929433247032</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.856278964375</v>
+        <v>734.7003641811732</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963567</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6233,25 +6233,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6266,10 +6266,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1321.464883050339</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>957.5492919979866</v>
+        <v>495.0957149476</v>
       </c>
       <c r="C28" t="n">
-        <v>788.6131090700798</v>
+        <v>495.0957149476</v>
       </c>
       <c r="D28" t="n">
-        <v>638.4964696577441</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5833760753511</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F28" t="n">
-        <v>343.693428577441</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
         <v>176.4792337520202</v>
@@ -6382,16 +6382,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
         <v>1654.146473931025</v>
@@ -6409,25 +6409,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>2132.081545112621</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1877.397056906735</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.979886869774</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.990335971756</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y28" t="n">
-        <v>1139.197756828226</v>
+        <v>676.7441797778397</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E29" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
         <v>3468.466124132384</v>
@@ -6506,7 +6506,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L30" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>1971.609675461662</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>965.8040325357862</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C31" t="n">
-        <v>930.4858260316502</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193143</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369212</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390108</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135897</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948588</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6637,34 +6637,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2429.412499335694</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2429.412499335694</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>2140.336285650421</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1885.651797444534</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1596.234627407573</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.245076509556</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y31" t="n">
-        <v>1147.452497366026</v>
+        <v>676.74417977784</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E32" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921446</v>
       </c>
       <c r="G32" t="n">
         <v>375.6104516478937</v>
@@ -6698,22 +6698,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
         <v>4150.915188021282</v>
@@ -6774,31 +6774,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I33" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0073801158079</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>1062.739712959559</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.397267764552</v>
+        <v>772.3305018665839</v>
       </c>
       <c r="C34" t="n">
-        <v>454.0896220759879</v>
+        <v>607.0228561780197</v>
       </c>
       <c r="D34" t="n">
-        <v>454.0896220759879</v>
+        <v>607.0228561780197</v>
       </c>
       <c r="E34" t="n">
-        <v>454.0896220759879</v>
+        <v>607.0228561780197</v>
       </c>
       <c r="F34" t="n">
-        <v>310.8282118174202</v>
+        <v>473.6438088954564</v>
       </c>
       <c r="G34" t="n">
         <v>310.058151309378</v>
@@ -6868,7 +6868,7 @@
         <v>1252.639200606911</v>
       </c>
       <c r="N34" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O34" t="n">
         <v>2041.470182110207</v>
@@ -6877,31 +6877,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S34" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T34" t="n">
-        <v>2061.234511128404</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U34" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880317</v>
       </c>
       <c r="V34" t="n">
-        <v>1524.730883715929</v>
+        <v>1460.500075913773</v>
       </c>
       <c r="W34" t="n">
-        <v>1238.942250918311</v>
+        <v>1174.711443116155</v>
       </c>
       <c r="X34" t="n">
-        <v>1014.581237259637</v>
+        <v>950.3504294574809</v>
       </c>
       <c r="Y34" t="n">
-        <v>797.4171953554491</v>
+        <v>950.3504294574809</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F35" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921445</v>
       </c>
       <c r="G35" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L35" t="n">
         <v>1461.45766301865</v>
@@ -6947,7 +6947,7 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O35" t="n">
         <v>3602.609239333933</v>
@@ -6959,28 +6959,28 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S35" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T35" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W35" t="n">
         <v>3434.772564052773</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0073801158079</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.758067211687</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.758067211687</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O36" t="n">
-        <v>2201.634542211881</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P36" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>928.7009670155815</v>
+        <v>926.4974211856384</v>
       </c>
       <c r="C37" t="n">
-        <v>763.3933213270172</v>
+        <v>761.1897754970742</v>
       </c>
       <c r="D37" t="n">
-        <v>616.9052191540242</v>
+        <v>761.1897754970742</v>
       </c>
       <c r="E37" t="n">
-        <v>616.9052191540242</v>
+        <v>616.9052191540237</v>
       </c>
       <c r="F37" t="n">
-        <v>473.6438088954565</v>
+        <v>473.6438088954561</v>
       </c>
       <c r="G37" t="n">
-        <v>310.058151309378</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="H37" t="n">
-        <v>171.813971587151</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M37" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O37" t="n">
         <v>2041.470182110207</v>
@@ -7117,28 +7117,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R37" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S37" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T37" t="n">
-        <v>2277.284756174679</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.837079728748</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V37" t="n">
-        <v>1740.781128762204</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.992495964586</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.631482305912</v>
+        <v>1321.681390680723</v>
       </c>
       <c r="Y37" t="n">
-        <v>1013.467440401724</v>
+        <v>1104.517348776535</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F38" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921445</v>
       </c>
       <c r="G38" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J38" t="n">
         <v>372.3074987251936</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128781</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T38" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U38" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V38" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W38" t="n">
         <v>3434.772564052773</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="39">
@@ -7236,43 +7236,43 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E39" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F39" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G39" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J39" t="n">
-        <v>93.85065580060315</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>207.5998618817248</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>698.3321947254761</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.9389207862788</v>
+        <v>771.2167050086723</v>
       </c>
       <c r="C40" t="n">
-        <v>633.6312750977146</v>
+        <v>605.9090593201081</v>
       </c>
       <c r="D40" t="n">
-        <v>487.1431729247215</v>
+        <v>459.4209571471149</v>
       </c>
       <c r="E40" t="n">
-        <v>473.6438088954563</v>
+        <v>459.4209571471149</v>
       </c>
       <c r="F40" t="n">
-        <v>473.6438088954563</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0581513093779</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H40" t="n">
-        <v>171.813971587151</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J40" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M40" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O40" t="n">
         <v>2041.470182110207</v>
@@ -7354,28 +7354,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R40" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S40" t="n">
-        <v>2456.826409196406</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T40" t="n">
-        <v>2240.776164150131</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.3284877042</v>
+        <v>1927.606271926593</v>
       </c>
       <c r="V40" t="n">
-        <v>1704.272536737656</v>
+        <v>1676.550320960049</v>
       </c>
       <c r="W40" t="n">
-        <v>1418.483903940038</v>
+        <v>1390.761688162431</v>
       </c>
       <c r="X40" t="n">
-        <v>1194.122890281363</v>
+        <v>1166.400674503757</v>
       </c>
       <c r="Y40" t="n">
-        <v>976.9588483771759</v>
+        <v>949.2366325995692</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469786</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768717</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.482104401309</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921458</v>
       </c>
       <c r="G41" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128753</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L41" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021284</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127291</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304029</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.161824228879</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.34703218777</v>
+        <v>4111.347032187774</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083542</v>
+        <v>3783.912682083546</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052771</v>
+        <v>3434.772564052775</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031034</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294565</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7473,40 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E42" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560485</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G42" t="n">
-        <v>177.6844143428629</v>
+        <v>177.684414342863</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J42" t="n">
-        <v>241.498637552449</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0073801158078</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>1062.739712959559</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O42" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
         <v>2552.77562977024</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.005337806289</v>
+        <v>926.4974211856386</v>
       </c>
       <c r="C43" t="n">
-        <v>907.6778776700677</v>
+        <v>761.1897754970744</v>
       </c>
       <c r="D43" t="n">
-        <v>761.1897754970746</v>
+        <v>761.1897754970744</v>
       </c>
       <c r="E43" t="n">
-        <v>616.9052191540242</v>
+        <v>616.9052191540239</v>
       </c>
       <c r="F43" t="n">
-        <v>473.6438088954564</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="G43" t="n">
         <v>310.0581513093779</v>
@@ -7564,25 +7564,25 @@
         <v>171.813971587151</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J43" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141717</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M43" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N43" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O43" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P43" t="n">
         <v>2335.556946294691</v>
@@ -7594,25 +7594,25 @@
         <v>2392.59560139425</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.053948372522</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T43" t="n">
-        <v>2213.053948372522</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.606271926592</v>
+        <v>1797.098355305942</v>
       </c>
       <c r="V43" t="n">
-        <v>1676.550320960048</v>
+        <v>1546.042404339398</v>
       </c>
       <c r="W43" t="n">
-        <v>1676.550320960048</v>
+        <v>1546.042404339398</v>
       </c>
       <c r="X43" t="n">
-        <v>1452.189307301373</v>
+        <v>1321.681390680723</v>
       </c>
       <c r="Y43" t="n">
-        <v>1235.025265397186</v>
+        <v>1104.517348776536</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921445</v>
       </c>
       <c r="G44" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608179</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S44" t="n">
         <v>4558.742435310219</v>
@@ -7685,7 +7685,7 @@
         <v>3783.912682083544</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X44" t="n">
         <v>3064.935343031035</v>
@@ -7719,31 +7719,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>93.85065580060314</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.85065580060314</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L45" t="n">
-        <v>584.5829886443545</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.601342896482</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1775.337880784798</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
         <v>2552.77562977024</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.4974211856386</v>
+        <v>619.3972677645522</v>
       </c>
       <c r="C46" t="n">
-        <v>761.1897754970742</v>
+        <v>619.3972677645522</v>
       </c>
       <c r="D46" t="n">
-        <v>761.1897754970742</v>
+        <v>472.9091655915593</v>
       </c>
       <c r="E46" t="n">
-        <v>616.9052191540238</v>
+        <v>328.6246092485089</v>
       </c>
       <c r="F46" t="n">
-        <v>473.6438088954562</v>
+        <v>256.397280812159</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0581513093778</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H46" t="n">
-        <v>171.8139715871509</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639142</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827577</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141717</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N46" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O46" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P46" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q46" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R46" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S46" t="n">
-        <v>2213.053948372524</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T46" t="n">
-        <v>1997.003703326249</v>
+        <v>2061.234511128403</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.556026880318</v>
+        <v>1775.786834682473</v>
       </c>
       <c r="V46" t="n">
-        <v>1460.500075913774</v>
+        <v>1524.730883715929</v>
       </c>
       <c r="W46" t="n">
-        <v>1460.500075913774</v>
+        <v>1238.942250918311</v>
       </c>
       <c r="X46" t="n">
-        <v>1321.681390680723</v>
+        <v>1014.581237259637</v>
       </c>
       <c r="Y46" t="n">
-        <v>1104.517348776536</v>
+        <v>797.4171953554492</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>123.1344373231651</v>
+        <v>123.1344373231636</v>
       </c>
       <c r="K2" t="n">
-        <v>133.2955737061106</v>
+        <v>133.2955737061085</v>
       </c>
       <c r="L2" t="n">
-        <v>128.090439056119</v>
+        <v>128.0904390561163</v>
       </c>
       <c r="M2" t="n">
-        <v>110.5359630836737</v>
+        <v>110.5359630836707</v>
       </c>
       <c r="N2" t="n">
-        <v>107.6641380242874</v>
+        <v>107.6641380242843</v>
       </c>
       <c r="O2" t="n">
-        <v>115.1341533968289</v>
+        <v>115.134153396826</v>
       </c>
       <c r="P2" t="n">
-        <v>133.1138320185388</v>
+        <v>133.1138320185363</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.6222841810019</v>
+        <v>148.622284181</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>92.34595353351708</v>
+        <v>92.34595353351619</v>
       </c>
       <c r="K3" t="n">
-        <v>78.88967583693875</v>
+        <v>78.88967583693727</v>
       </c>
       <c r="L3" t="n">
-        <v>59.28645914217992</v>
+        <v>59.28645914217793</v>
       </c>
       <c r="M3" t="n">
-        <v>49.63210936410303</v>
+        <v>49.63210936410071</v>
       </c>
       <c r="N3" t="n">
-        <v>36.391536830437</v>
+        <v>36.39153683043462</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73538411047817</v>
+        <v>55.73538411047599</v>
       </c>
       <c r="P3" t="n">
-        <v>64.26090920760501</v>
+        <v>64.26090920760326</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.38014673041191</v>
+        <v>93.38014673041073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>93.45378769827919</v>
+        <v>93.45378769827829</v>
       </c>
       <c r="L4" t="n">
-        <v>89.38079677393954</v>
+        <v>89.38079677393839</v>
       </c>
       <c r="M4" t="n">
-        <v>90.94832312185281</v>
+        <v>90.94832312185162</v>
       </c>
       <c r="N4" t="n">
-        <v>80.84888042301965</v>
+        <v>80.84888042301847</v>
       </c>
       <c r="O4" t="n">
-        <v>95.19529847511043</v>
+        <v>95.19529847510934</v>
       </c>
       <c r="P4" t="n">
-        <v>100.7105396389053</v>
+        <v>100.7105396389044</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,16 +8219,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8313,7 +8313,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8380,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>83.94880351013401</v>
+        <v>96.90786507921538</v>
       </c>
       <c r="K8" t="n">
         <v>87.52552801712514</v>
       </c>
       <c r="L8" t="n">
-        <v>68.19084988866638</v>
+        <v>68.19084988866635</v>
       </c>
       <c r="M8" t="n">
-        <v>29.46667578020953</v>
+        <v>29.46667578020933</v>
       </c>
       <c r="N8" t="n">
-        <v>38.24212646600407</v>
+        <v>37.7185280187684</v>
       </c>
       <c r="O8" t="n">
-        <v>37.34404209486166</v>
+        <v>37.34404209486146</v>
       </c>
       <c r="P8" t="n">
-        <v>66.72177176014168</v>
+        <v>66.72177176014151</v>
       </c>
       <c r="Q8" t="n">
-        <v>111.2000750139837</v>
+        <v>98.76461189213791</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>69.00725848294195</v>
+        <v>81.44272160478774</v>
       </c>
       <c r="K9" t="n">
-        <v>39.00012866285101</v>
+        <v>39.00012866285091</v>
       </c>
       <c r="L9" t="n">
-        <v>18.60910185982812</v>
+        <v>5.650040290746659</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.920285222359354</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4861505943095</v>
+        <v>17.08946381918564</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.84728471138132</v>
+        <v>61.84728471138123</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>81.82803365886468</v>
+        <v>69.39257053701891</v>
       </c>
       <c r="L10" t="n">
-        <v>58.59072279465553</v>
+        <v>58.59072279465545</v>
       </c>
       <c r="M10" t="n">
-        <v>71.44356876670801</v>
+        <v>71.44356876670807</v>
       </c>
       <c r="N10" t="n">
-        <v>62.11604305035657</v>
+        <v>62.11604305035662</v>
       </c>
       <c r="O10" t="n">
-        <v>78.88176188900599</v>
+        <v>78.88176188900606</v>
       </c>
       <c r="P10" t="n">
-        <v>75.66277491954651</v>
+        <v>88.09823804139229</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782908954</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.62041268321091</v>
+        <v>14.6204126832109</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.199657907301446</v>
+        <v>1.199657907301305</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.73189539409373</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.73189539409779</v>
       </c>
       <c r="T11" t="n">
         <v>199.7814835402778</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9864363272033</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.87347200350023</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>157.7521638373317</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.1376130784716</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>13.5848684472482</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.147026946850275</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.7814835402778</v>
       </c>
       <c r="U14" t="n">
-        <v>218.5133789343716</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9864363272033</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>83.60553087386197</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.8734720035003</v>
       </c>
       <c r="S16" t="n">
         <v>182.382148898411</v>
       </c>
       <c r="T16" t="n">
-        <v>88.63887832791107</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.9887216058934</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>218.5133789343777</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.147026946850035</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>213.3663519875191</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.57662153886082</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>51.2467908532693</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9864363272033</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>83.60553087386204</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.87347200350014</v>
+        <v>69.8734720035003</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1887180915814</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.147026946850275</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>87.65488037583684</v>
       </c>
       <c r="T20" t="n">
-        <v>199.7814835402777</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>125.7114716116884</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.73189539409209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>143.2184126601699</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6019395017859</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.9864363272033</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>83.60553087386204</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.87347200350015</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.3821488984109</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>98.5682924757476</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.2179798580781</v>
+        <v>57.37662255930019</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.1811993037091</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>276.4905529214232</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>132.2817966595332</v>
+        <v>64.04844901173774</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>142.8417107796199</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.783539346244385</v>
       </c>
       <c r="G34" t="n">
-        <v>161.1874411072559</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.5884997241343</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.32091966270623</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E37" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413429</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8897425958125</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>84.68690514136715</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.4773403906475</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F40" t="n">
-        <v>141.828796155982</v>
+        <v>77.69709450938016</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413429</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.7462364915097</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.8203836968199</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>213.8897425958125</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>84.68690514136762</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.32374100399502</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.21232487745972</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.58849972413425</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>282.9307464696417</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>84.68690514136694</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>866286.2808482037</v>
+        <v>866286.2808482029</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796888.6288036682</v>
+        <v>796888.6288036677</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796888.6288036681</v>
+        <v>796888.6288036676</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796888.6288036682</v>
+        <v>796888.6288036676</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796888.6288036683</v>
+        <v>796888.6288036677</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>817363.8191314426</v>
+        <v>817363.8191314425</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817363.8191314426</v>
+        <v>817363.8191314425</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>817887.5483931738</v>
+        <v>817887.5483931737</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>817887.5483931738</v>
+        <v>817887.5483931741</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>817887.5483931737</v>
+        <v>817887.5483931741</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614497.9888302444</v>
+        <v>614497.9888302446</v>
       </c>
       <c r="C2" t="n">
-        <v>614513.6012469289</v>
+        <v>614513.6012469288</v>
       </c>
       <c r="D2" t="n">
-        <v>615709.7078211464</v>
+        <v>615709.7078211462</v>
       </c>
       <c r="E2" t="n">
-        <v>590804.6019963619</v>
+        <v>590804.6019963617</v>
       </c>
       <c r="F2" t="n">
-        <v>590804.601996362</v>
+        <v>590804.6019963617</v>
       </c>
       <c r="G2" t="n">
-        <v>590804.6019963622</v>
+        <v>590804.6019963616</v>
       </c>
       <c r="H2" t="n">
-        <v>590804.6019963624</v>
+        <v>590804.6019963616</v>
       </c>
       <c r="I2" t="n">
         <v>605012.2328389193</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.232838919</v>
       </c>
       <c r="K2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="L2" t="n">
+        <v>606553.7916884916</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606553.7916884917</v>
+      </c>
+      <c r="N2" t="n">
         <v>606553.7916884914</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>606553.7916884912</v>
       </c>
-      <c r="N2" t="n">
-        <v>606553.7916884916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606553.7916884915</v>
-      </c>
       <c r="P2" t="n">
-        <v>606553.7916884917</v>
+        <v>606553.7916884914</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163552.3982183971</v>
+        <v>163552.3982184012</v>
       </c>
       <c r="C3" t="n">
-        <v>59236.24107341062</v>
+        <v>59236.24107340675</v>
       </c>
       <c r="D3" t="n">
-        <v>46670.13655276965</v>
+        <v>46670.13655276994</v>
       </c>
       <c r="E3" t="n">
-        <v>1166118.720469702</v>
+        <v>1166118.7204697</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.90412828361884e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.628298257057041e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>39266.9402785804</v>
+        <v>39266.94027858168</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.801493559455</v>
+        <v>2873.8014935594</v>
       </c>
       <c r="M3" t="n">
-        <v>275741.5593489974</v>
+        <v>275741.559348997</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383944.5184566727</v>
+        <v>383944.5184566716</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
@@ -26430,31 +26430,31 @@
         <v>9919.479860184394</v>
       </c>
       <c r="G4" t="n">
-        <v>9919.479860184441</v>
+        <v>9919.479860184394</v>
       </c>
       <c r="H4" t="n">
-        <v>9919.479860184441</v>
+        <v>9919.479860184394</v>
       </c>
       <c r="I4" t="n">
-        <v>11478.42096839271</v>
+        <v>11478.42096839265</v>
       </c>
       <c r="J4" t="n">
         <v>11478.42096839269</v>
       </c>
       <c r="K4" t="n">
-        <v>11478.42096839269</v>
+        <v>11478.42096839267</v>
       </c>
       <c r="L4" t="n">
         <v>13407.53947155536</v>
       </c>
       <c r="M4" t="n">
-        <v>13407.5394715554</v>
+        <v>13407.53947155542</v>
       </c>
       <c r="N4" t="n">
-        <v>13407.53947155543</v>
+        <v>13407.53947155549</v>
       </c>
       <c r="O4" t="n">
-        <v>13407.53947155535</v>
+        <v>13407.53947155552</v>
       </c>
       <c r="P4" t="n">
         <v>13407.53947155542</v>
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37327.67698231661</v>
+        <v>37327.67698231671</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>40619.23476304413</v>
+        <v>40619.23476304414</v>
       </c>
       <c r="E5" t="n">
-        <v>96943.78035512147</v>
+        <v>96943.78035512139</v>
       </c>
       <c r="F5" t="n">
-        <v>96943.78035512147</v>
+        <v>96943.78035512137</v>
       </c>
       <c r="G5" t="n">
-        <v>96943.7803551215</v>
+        <v>96943.78035512137</v>
       </c>
       <c r="H5" t="n">
-        <v>96943.7803551215</v>
+        <v>96943.78035512139</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="K5" t="n">
         <v>100930.0394572386</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100444.125536041</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29673.39517285796</v>
+        <v>29669.11737762851</v>
       </c>
       <c r="C6" t="n">
-        <v>148344.4527308067</v>
+        <v>148340.2269769728</v>
       </c>
       <c r="D6" t="n">
-        <v>172527.1460828797</v>
+        <v>172526.9073509558</v>
       </c>
       <c r="E6" t="n">
-        <v>-682177.3786886455</v>
+        <v>-682260.6344399839</v>
       </c>
       <c r="F6" t="n">
-        <v>483941.3417810559</v>
+        <v>483858.0860297165</v>
       </c>
       <c r="G6" t="n">
-        <v>483941.341781056</v>
+        <v>483858.0860297164</v>
       </c>
       <c r="H6" t="n">
-        <v>483941.3417810565</v>
+        <v>483858.0860297163</v>
       </c>
       <c r="I6" t="n">
-        <v>453336.8321347076</v>
+        <v>453300.9351528421</v>
       </c>
       <c r="J6" t="n">
-        <v>492603.772413288</v>
+        <v>492567.8754314236</v>
       </c>
       <c r="K6" t="n">
-        <v>492603.772413288</v>
+        <v>492567.8754314239</v>
       </c>
       <c r="L6" t="n">
-        <v>489828.3251873355</v>
+        <v>489797.5667349701</v>
       </c>
       <c r="M6" t="n">
-        <v>216960.5673318975</v>
+        <v>216929.8088795325</v>
       </c>
       <c r="N6" t="n">
-        <v>492702.1266808952</v>
+        <v>492671.368228529</v>
       </c>
       <c r="O6" t="n">
-        <v>492702.1266808951</v>
+        <v>492671.368228529</v>
       </c>
       <c r="P6" t="n">
-        <v>492702.1266808953</v>
+        <v>492671.3682285292</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,13 +26716,13 @@
         <v>3.592251866949249</v>
       </c>
       <c r="M2" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N2" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O2" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P2" t="n">
         <v>3.592251866949314</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.728301941129</v>
+        <v>169.7283019411333</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>284.5744871396324</v>
+        <v>284.5744871396327</v>
       </c>
       <c r="E3" t="n">
-        <v>1324.83119324582</v>
+        <v>1324.831193245819</v>
       </c>
       <c r="F3" t="n">
-        <v>1324.83119324582</v>
+        <v>1324.831193245819</v>
       </c>
       <c r="G3" t="n">
-        <v>1324.83119324582</v>
+        <v>1324.831193245819</v>
       </c>
       <c r="H3" t="n">
-        <v>1324.83119324582</v>
+        <v>1324.831193245819</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="E4" t="n">
-        <v>1119.448360894122</v>
+        <v>1119.44836089412</v>
       </c>
       <c r="F4" t="n">
-        <v>1119.448360894122</v>
+        <v>1119.44836089412</v>
       </c>
       <c r="G4" t="n">
-        <v>1119.448360894122</v>
+        <v>1119.44836089412</v>
       </c>
       <c r="H4" t="n">
-        <v>1119.448360894122</v>
+        <v>1119.44836089412</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26826,10 +26826,10 @@
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
+        <v>1160.145290326007</v>
+      </c>
+      <c r="P4" t="n">
         <v>1160.145290326006</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1160.145290326007</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949319</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.439293542825908e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.728301941129</v>
+        <v>169.7283019411333</v>
       </c>
       <c r="C3" t="n">
-        <v>65.05173618486521</v>
+        <v>65.05173618486094</v>
       </c>
       <c r="D3" t="n">
-        <v>49.79444901363817</v>
+        <v>49.79444901363846</v>
       </c>
       <c r="E3" t="n">
-        <v>1040.256706106188</v>
+        <v>1040.256706106187</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.20985547056534</v>
+        <v>33.20985547056648</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,22 +27015,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="E4" t="n">
-        <v>1106.48929932504</v>
+        <v>1106.489299325039</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.912170443647631e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.035003491570114e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>53.65599100096574</v>
+        <v>53.65599100096733</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1106.48929932504</v>
+        <v>1106.489299325039</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,19 +27261,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="M4" t="n">
-        <v>1106.48929932504</v>
+        <v>1106.489299325039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.912170443647631e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.035003491570114e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>332.4869429308241</v>
+        <v>332.4869429308239</v>
       </c>
       <c r="I2" t="n">
-        <v>184.1705614876506</v>
+        <v>184.17056148765</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>107.0080307177951</v>
+        <v>107.008030717794</v>
       </c>
       <c r="S2" t="n">
-        <v>193.4715924787741</v>
+        <v>193.4715924787737</v>
       </c>
       <c r="T2" t="n">
         <v>220.1089726123834</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2910669212826</v>
+        <v>251.2910669212825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27473,10 +27473,10 @@
         <v>136.9784411929976</v>
       </c>
       <c r="H3" t="n">
-        <v>108.7095789452289</v>
+        <v>108.7095789452288</v>
       </c>
       <c r="I3" t="n">
-        <v>76.82713124539751</v>
+        <v>76.82713124539718</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.49109979152405</v>
+        <v>77.49109979152348</v>
       </c>
       <c r="S3" t="n">
-        <v>164.902045078171</v>
+        <v>164.9020450781709</v>
       </c>
       <c r="T3" t="n">
         <v>198.6932163411999</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.6849119287289</v>
+        <v>167.6849119287288</v>
       </c>
       <c r="H4" t="n">
-        <v>159.5059548140228</v>
+        <v>159.5059548140227</v>
       </c>
       <c r="I4" t="n">
-        <v>146.2461925859262</v>
+        <v>146.246192585926</v>
       </c>
       <c r="J4" t="n">
-        <v>71.72021283476852</v>
+        <v>71.72021283476798</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.53306965858391</v>
+        <v>60.53306965858327</v>
       </c>
       <c r="R4" t="n">
-        <v>163.5314867640412</v>
+        <v>163.5314867640409</v>
       </c>
       <c r="S4" t="n">
-        <v>218.6826774661338</v>
+        <v>218.6826774661337</v>
       </c>
       <c r="T4" t="n">
         <v>226.637846773981</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>369.7747800943993</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>393.91698417263</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>78.00619481437607</v>
+        <v>65.04713324529455</v>
       </c>
       <c r="S8" t="n">
-        <v>182.9507585281775</v>
+        <v>171.5364170981306</v>
       </c>
       <c r="T8" t="n">
         <v>218.0879105994932</v>
       </c>
       <c r="U8" t="n">
-        <v>246.7158357764009</v>
+        <v>251.2541314647363</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>373.2788770869723</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>161.2941575582689</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>144.6860188863196</v>
+        <v>144.6860188863195</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>132.1101508243024</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7314135493631</v>
+        <v>123.7723519802817</v>
       </c>
       <c r="H9" t="n">
-        <v>93.36475039683523</v>
+        <v>94.90947053586962</v>
       </c>
       <c r="I9" t="n">
-        <v>68.32201281324419</v>
+        <v>68.32201281324416</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.15371679463712</v>
+        <v>62.15371679463708</v>
       </c>
       <c r="S9" t="n">
         <v>160.3136149431176</v>
       </c>
       <c r="T9" t="n">
-        <v>184.7384600155391</v>
+        <v>197.6975215846205</v>
       </c>
       <c r="U9" t="n">
         <v>225.9011121063796</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.872918612856</v>
+        <v>166.8729186128558</v>
       </c>
       <c r="C10" t="n">
-        <v>154.2877595295465</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>133.4749010774877</v>
       </c>
       <c r="F10" t="n">
-        <v>134.0067065928844</v>
+        <v>132.4619864538498</v>
       </c>
       <c r="G10" t="n">
         <v>167.477812250502</v>
@@ -28032,7 +28032,7 @@
         <v>140.0181404443418</v>
       </c>
       <c r="J10" t="n">
-        <v>57.07826558413309</v>
+        <v>57.07826558413306</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.1912956936099</v>
+        <v>43.19129569360985</v>
       </c>
       <c r="R10" t="n">
-        <v>154.2195321412249</v>
+        <v>142.8051907111779</v>
       </c>
       <c r="S10" t="n">
         <v>215.0734948919448</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.6255917830135</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.972200594645983e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949242</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6823248319241362</v>
+        <v>0.6823248319241533</v>
       </c>
       <c r="H2" t="n">
-        <v>6.987859184943061</v>
+        <v>6.987859184943236</v>
       </c>
       <c r="I2" t="n">
-        <v>26.30532808275528</v>
+        <v>26.30532808275595</v>
       </c>
       <c r="J2" t="n">
-        <v>57.9114672035212</v>
+        <v>57.91146720352265</v>
       </c>
       <c r="K2" t="n">
-        <v>86.7942773388699</v>
+        <v>86.79427733887208</v>
       </c>
       <c r="L2" t="n">
-        <v>107.6759759138682</v>
+        <v>107.6759759138709</v>
       </c>
       <c r="M2" t="n">
-        <v>119.8102701435991</v>
+        <v>119.8102701436021</v>
       </c>
       <c r="N2" t="n">
-        <v>121.7489255723035</v>
+        <v>121.7489255723066</v>
       </c>
       <c r="O2" t="n">
-        <v>114.9640580248579</v>
+        <v>114.9640580248608</v>
       </c>
       <c r="P2" t="n">
-        <v>98.11916373673075</v>
+        <v>98.11916373673321</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.68340569344761</v>
+        <v>73.68340569344946</v>
       </c>
       <c r="R2" t="n">
-        <v>42.86108722335455</v>
+        <v>42.86108722335563</v>
       </c>
       <c r="S2" t="n">
-        <v>15.54847710747127</v>
+        <v>15.54847710747166</v>
       </c>
       <c r="T2" t="n">
-        <v>2.986876951747907</v>
+        <v>2.986876951747982</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05458598655393088</v>
+        <v>0.05458598655393225</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3650759702129944</v>
+        <v>0.3650759702130036</v>
       </c>
       <c r="H3" t="n">
-        <v>3.525865291267605</v>
+        <v>3.525865291267694</v>
       </c>
       <c r="I3" t="n">
-        <v>12.56950160601757</v>
+        <v>12.56950160601789</v>
       </c>
       <c r="J3" t="n">
-        <v>34.49167313314963</v>
+        <v>34.49167313315049</v>
       </c>
       <c r="K3" t="n">
-        <v>58.95176313742025</v>
+        <v>58.95176313742173</v>
       </c>
       <c r="L3" t="n">
-        <v>79.26792063769426</v>
+        <v>79.26792063769625</v>
       </c>
       <c r="M3" t="n">
-        <v>92.50192455791529</v>
+        <v>92.5019245579176</v>
       </c>
       <c r="N3" t="n">
-        <v>94.9501752528963</v>
+        <v>94.95017525289869</v>
       </c>
       <c r="O3" t="n">
-        <v>86.86086033396627</v>
+        <v>86.86086033396845</v>
       </c>
       <c r="P3" t="n">
-        <v>69.71349820672523</v>
+        <v>69.71349820672698</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.60162735560961</v>
+        <v>46.60162735561078</v>
       </c>
       <c r="R3" t="n">
-        <v>22.66673436111908</v>
+        <v>22.66673436111966</v>
       </c>
       <c r="S3" t="n">
-        <v>6.7811260256668</v>
+        <v>6.78112602566697</v>
       </c>
       <c r="T3" t="n">
-        <v>1.471512353621674</v>
+        <v>1.471512353621711</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02401815593506543</v>
+        <v>0.02401815593506604</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3060674297299047</v>
+        <v>0.3060674297299124</v>
       </c>
       <c r="H4" t="n">
-        <v>2.721217693416791</v>
+        <v>2.721217693416859</v>
       </c>
       <c r="I4" t="n">
-        <v>9.204282341332046</v>
+        <v>9.204282341332277</v>
       </c>
       <c r="J4" t="n">
-        <v>21.63896728190426</v>
+        <v>21.6389672819048</v>
       </c>
       <c r="K4" t="n">
-        <v>35.55947047225619</v>
+        <v>35.55947047225709</v>
       </c>
       <c r="L4" t="n">
-        <v>45.50387950729875</v>
+        <v>45.50387950729989</v>
       </c>
       <c r="M4" t="n">
-        <v>47.97746082575224</v>
+        <v>47.97746082575344</v>
       </c>
       <c r="N4" t="n">
-        <v>46.83666404221354</v>
+        <v>46.83666404221471</v>
       </c>
       <c r="O4" t="n">
-        <v>43.26123997673236</v>
+        <v>43.26123997673345</v>
       </c>
       <c r="P4" t="n">
-        <v>37.01746441024228</v>
+        <v>37.01746441024321</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.62897359311048</v>
+        <v>25.62897359311112</v>
       </c>
       <c r="R4" t="n">
-        <v>13.76190461312826</v>
+        <v>13.7619046131286</v>
       </c>
       <c r="S4" t="n">
-        <v>5.333920570838428</v>
+        <v>5.333920570838562</v>
       </c>
       <c r="T4" t="n">
-        <v>1.307742654300502</v>
+        <v>1.307742654300534</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01669458707617664</v>
+        <v>0.01669458707617706</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.14401803875229</v>
+        <v>1.144018038752291</v>
       </c>
       <c r="H8" t="n">
-        <v>11.71617473937189</v>
+        <v>11.7161747393719</v>
       </c>
       <c r="I8" t="n">
-        <v>44.10475543899771</v>
+        <v>44.10475543899775</v>
       </c>
       <c r="J8" t="n">
-        <v>97.09710101655227</v>
+        <v>97.09710101655236</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5233845969367</v>
+        <v>145.5233845969369</v>
       </c>
       <c r="L8" t="n">
-        <v>180.5346266504022</v>
+        <v>180.5346266504023</v>
       </c>
       <c r="M8" t="n">
-        <v>200.8795574470632</v>
+        <v>200.8795574470634</v>
       </c>
       <c r="N8" t="n">
-        <v>204.1299986996682</v>
+        <v>204.1299986996684</v>
       </c>
       <c r="O8" t="n">
-        <v>192.7541693268251</v>
+        <v>192.7541693268253</v>
       </c>
       <c r="P8" t="n">
-        <v>164.5112239951279</v>
+        <v>164.511223995128</v>
       </c>
       <c r="Q8" t="n">
-        <v>123.5410779823114</v>
+        <v>123.5410779823116</v>
       </c>
       <c r="R8" t="n">
-        <v>71.86292312677361</v>
+        <v>71.86292312677368</v>
       </c>
       <c r="S8" t="n">
-        <v>26.06931105806784</v>
+        <v>26.06931105806786</v>
       </c>
       <c r="T8" t="n">
-        <v>5.007938964638153</v>
+        <v>5.007938964638157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09152144310018319</v>
+        <v>0.09152144310018327</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6121036138475111</v>
+        <v>0.6121036138475118</v>
       </c>
       <c r="H9" t="n">
-        <v>5.911632270579911</v>
+        <v>5.911632270579917</v>
       </c>
       <c r="I9" t="n">
-        <v>21.07462003817089</v>
+        <v>21.07462003817091</v>
       </c>
       <c r="J9" t="n">
-        <v>57.83036818372474</v>
+        <v>57.83036818372479</v>
       </c>
       <c r="K9" t="n">
-        <v>98.84131031150798</v>
+        <v>98.84131031150808</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9043394891274</v>
+        <v>132.9043394891275</v>
       </c>
       <c r="M9" t="n">
-        <v>155.0930954910996</v>
+        <v>155.0930954910998</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3007736524146</v>
+        <v>144.3007736524148</v>
       </c>
       <c r="O9" t="n">
-        <v>145.6350207911664</v>
+        <v>145.6350207911665</v>
       </c>
       <c r="P9" t="n">
-        <v>116.8849435951445</v>
+        <v>116.8849435951446</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.1344893746402</v>
+        <v>78.13448937464028</v>
       </c>
       <c r="R9" t="n">
-        <v>38.00411735800601</v>
+        <v>38.00411735800605</v>
       </c>
       <c r="S9" t="n">
-        <v>11.36955616072021</v>
+        <v>11.36955616072022</v>
       </c>
       <c r="T9" t="n">
-        <v>2.467207110201151</v>
+        <v>2.467207110201154</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04026997459523101</v>
+        <v>0.04026997459523105</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5131671079567141</v>
+        <v>0.5131671079567146</v>
       </c>
       <c r="H10" t="n">
-        <v>4.562522105287879</v>
+        <v>4.562522105287884</v>
       </c>
       <c r="I10" t="n">
-        <v>15.43233448291646</v>
+        <v>15.43233448291648</v>
       </c>
       <c r="J10" t="n">
-        <v>36.28091453253968</v>
+        <v>36.28091453253972</v>
       </c>
       <c r="K10" t="n">
-        <v>59.6206876335164</v>
+        <v>59.62068763351646</v>
       </c>
       <c r="L10" t="n">
-        <v>76.29395348658275</v>
+        <v>76.29395348658284</v>
       </c>
       <c r="M10" t="n">
-        <v>80.44127674997836</v>
+        <v>80.44127674997844</v>
       </c>
       <c r="N10" t="n">
-        <v>78.52856298395794</v>
+        <v>78.52856298395803</v>
       </c>
       <c r="O10" t="n">
-        <v>72.53383813191812</v>
+        <v>72.53383813191819</v>
       </c>
       <c r="P10" t="n">
-        <v>62.0652291296011</v>
+        <v>62.06522912960116</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.97074755808448</v>
+        <v>42.97074755808453</v>
       </c>
       <c r="R10" t="n">
-        <v>23.07385923594461</v>
+        <v>23.07385923594463</v>
       </c>
       <c r="S10" t="n">
-        <v>8.943103145027459</v>
+        <v>8.943103145027468</v>
       </c>
       <c r="T10" t="n">
-        <v>2.192623097633232</v>
+        <v>2.192623097633235</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02799093316127534</v>
+        <v>0.02799093316127537</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.325954545711836</v>
+        <v>5.325954545711832</v>
       </c>
       <c r="H11" t="n">
-        <v>54.54443199127136</v>
+        <v>54.54443199127132</v>
       </c>
       <c r="I11" t="n">
-        <v>205.3288626235558</v>
+        <v>205.3288626235556</v>
       </c>
       <c r="J11" t="n">
-        <v>452.0337346241104</v>
+        <v>452.0337346241101</v>
       </c>
       <c r="K11" t="n">
-        <v>677.4813905440925</v>
+        <v>677.4813905440921</v>
       </c>
       <c r="L11" t="n">
-        <v>840.4755719724213</v>
+        <v>840.4755719724208</v>
       </c>
       <c r="M11" t="n">
-        <v>935.1910161247241</v>
+        <v>935.1910161247235</v>
       </c>
       <c r="N11" t="n">
-        <v>950.3233844777279</v>
+        <v>950.3233844777274</v>
       </c>
       <c r="O11" t="n">
-        <v>897.3634239638059</v>
+        <v>897.3634239638052</v>
       </c>
       <c r="P11" t="n">
-        <v>765.8789211165448</v>
+        <v>765.8789211165442</v>
       </c>
       <c r="Q11" t="n">
-        <v>575.1431739482395</v>
+        <v>575.1431739482391</v>
       </c>
       <c r="R11" t="n">
-        <v>334.5564922320714</v>
+        <v>334.5564922320712</v>
       </c>
       <c r="S11" t="n">
-        <v>121.3651892104086</v>
+        <v>121.3651892104085</v>
       </c>
       <c r="T11" t="n">
-        <v>23.31436602385358</v>
+        <v>23.31436602385356</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4260763636569468</v>
+        <v>0.4260763636569465</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.849636906226859</v>
+        <v>2.849636906226857</v>
       </c>
       <c r="H12" t="n">
-        <v>27.5214932785594</v>
+        <v>27.52149327855938</v>
       </c>
       <c r="I12" t="n">
-        <v>98.11249874509141</v>
+        <v>98.11249874509136</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>460.1538683182205</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>618.7336624682484</v>
+        <v>618.7336624682481</v>
       </c>
       <c r="M12" t="n">
-        <v>722.033000318972</v>
+        <v>722.0330003189714</v>
       </c>
       <c r="N12" t="n">
-        <v>702.2259126863698</v>
+        <v>741.1430653611684</v>
       </c>
       <c r="O12" t="n">
-        <v>678.0011107547737</v>
+        <v>678.0011107547732</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>193.5978067710546</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>363.7536513983616</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.93075569241552</v>
+        <v>52.93075569241549</v>
       </c>
       <c r="T12" t="n">
-        <v>11.48603647729159</v>
+        <v>11.48603647729158</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1874761122517671</v>
+        <v>0.187476112251767</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38903985667279</v>
+        <v>2.389039856672789</v>
       </c>
       <c r="H13" t="n">
-        <v>21.24073618023628</v>
+        <v>21.24073618023627</v>
       </c>
       <c r="I13" t="n">
-        <v>71.8449440533963</v>
+        <v>71.84494405339625</v>
       </c>
       <c r="J13" t="n">
-        <v>168.9051178667663</v>
+        <v>168.9051178667661</v>
       </c>
       <c r="K13" t="n">
-        <v>277.562994257075</v>
+        <v>277.5629942570749</v>
       </c>
       <c r="L13" t="n">
-        <v>355.1850710547893</v>
+        <v>355.185071054789</v>
       </c>
       <c r="M13" t="n">
-        <v>374.4928568055356</v>
+        <v>374.4928568055354</v>
       </c>
       <c r="N13" t="n">
-        <v>365.5882537033919</v>
+        <v>365.5882537033916</v>
       </c>
       <c r="O13" t="n">
-        <v>337.6799244686233</v>
+        <v>337.679924468623</v>
       </c>
       <c r="P13" t="n">
-        <v>288.9435113924981</v>
+        <v>288.9435113924979</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.0495101801189</v>
+        <v>200.0495101801187</v>
       </c>
       <c r="R13" t="n">
-        <v>107.4199193736693</v>
+        <v>107.4199193736692</v>
       </c>
       <c r="S13" t="n">
-        <v>41.63444913856125</v>
+        <v>41.63444913856122</v>
       </c>
       <c r="T13" t="n">
         <v>10.20771575123828</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1303112649094251</v>
+        <v>0.130311264909425</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.325954545711837</v>
+        <v>5.325954545711832</v>
       </c>
       <c r="H14" t="n">
-        <v>54.54443199127137</v>
+        <v>54.54443199127132</v>
       </c>
       <c r="I14" t="n">
-        <v>205.3288626235558</v>
+        <v>205.3288626235556</v>
       </c>
       <c r="J14" t="n">
-        <v>452.0337346241104</v>
+        <v>452.0337346241101</v>
       </c>
       <c r="K14" t="n">
-        <v>677.4813905440926</v>
+        <v>677.4813905440921</v>
       </c>
       <c r="L14" t="n">
-        <v>840.4755719724214</v>
+        <v>840.4755719724208</v>
       </c>
       <c r="M14" t="n">
-        <v>935.1910161247243</v>
+        <v>935.1910161247235</v>
       </c>
       <c r="N14" t="n">
-        <v>950.3233844777282</v>
+        <v>950.3233844777274</v>
       </c>
       <c r="O14" t="n">
-        <v>897.363423963806</v>
+        <v>897.3634239638052</v>
       </c>
       <c r="P14" t="n">
-        <v>765.8789211165449</v>
+        <v>765.8789211165442</v>
       </c>
       <c r="Q14" t="n">
-        <v>575.1431739482396</v>
+        <v>575.1431739482391</v>
       </c>
       <c r="R14" t="n">
-        <v>334.5564922320715</v>
+        <v>334.5564922320712</v>
       </c>
       <c r="S14" t="n">
-        <v>121.3651892104086</v>
+        <v>121.3651892104085</v>
       </c>
       <c r="T14" t="n">
-        <v>23.31436602385358</v>
+        <v>23.31436602385356</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4260763636569469</v>
+        <v>0.4260763636569465</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.849636906226859</v>
+        <v>2.849636906226857</v>
       </c>
       <c r="H15" t="n">
-        <v>27.52149327855941</v>
+        <v>27.52149327855938</v>
       </c>
       <c r="I15" t="n">
-        <v>98.11249874509144</v>
+        <v>98.11249874509136</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>618.7336624682486</v>
+        <v>618.7336624682481</v>
       </c>
       <c r="M15" t="n">
-        <v>722.0330003189721</v>
+        <v>722.0330003189714</v>
       </c>
       <c r="N15" t="n">
-        <v>741.143065361169</v>
+        <v>741.1430653611684</v>
       </c>
       <c r="O15" t="n">
-        <v>678.0011107547738</v>
+        <v>678.0011107547732</v>
       </c>
       <c r="P15" t="n">
-        <v>386.121731711622</v>
+        <v>162.3498543992844</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>363.7536513983616</v>
       </c>
       <c r="R15" t="n">
-        <v>176.9274563357344</v>
+        <v>176.9274563357342</v>
       </c>
       <c r="S15" t="n">
-        <v>52.93075569241553</v>
+        <v>52.93075569241549</v>
       </c>
       <c r="T15" t="n">
-        <v>11.48603647729159</v>
+        <v>11.48603647729158</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1874761122517671</v>
+        <v>0.187476112251767</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.389039856672791</v>
+        <v>2.389039856672789</v>
       </c>
       <c r="H16" t="n">
-        <v>21.24073618023628</v>
+        <v>21.24073618023627</v>
       </c>
       <c r="I16" t="n">
-        <v>71.84494405339632</v>
+        <v>71.84494405339625</v>
       </c>
       <c r="J16" t="n">
-        <v>168.9051178667663</v>
+        <v>168.9051178667661</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5629942570751</v>
+        <v>277.5629942570749</v>
       </c>
       <c r="L16" t="n">
-        <v>355.1850710547893</v>
+        <v>355.185071054789</v>
       </c>
       <c r="M16" t="n">
-        <v>374.4928568055357</v>
+        <v>374.4928568055354</v>
       </c>
       <c r="N16" t="n">
-        <v>365.588253703392</v>
+        <v>365.5882537033916</v>
       </c>
       <c r="O16" t="n">
-        <v>337.6799244686233</v>
+        <v>337.679924468623</v>
       </c>
       <c r="P16" t="n">
-        <v>288.9435113924981</v>
+        <v>288.9435113924979</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.0495101801189</v>
+        <v>200.0495101801187</v>
       </c>
       <c r="R16" t="n">
-        <v>107.4199193736693</v>
+        <v>107.4199193736692</v>
       </c>
       <c r="S16" t="n">
-        <v>41.63444913856126</v>
+        <v>41.63444913856122</v>
       </c>
       <c r="T16" t="n">
-        <v>10.20771575123829</v>
+        <v>10.20771575123828</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1303112649094251</v>
+        <v>0.130311264909425</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.325954545711837</v>
+        <v>5.325954545711832</v>
       </c>
       <c r="H17" t="n">
-        <v>54.54443199127137</v>
+        <v>54.54443199127132</v>
       </c>
       <c r="I17" t="n">
-        <v>205.3288626235558</v>
+        <v>205.3288626235556</v>
       </c>
       <c r="J17" t="n">
-        <v>452.0337346241104</v>
+        <v>452.0337346241101</v>
       </c>
       <c r="K17" t="n">
-        <v>677.4813905440926</v>
+        <v>677.4813905440921</v>
       </c>
       <c r="L17" t="n">
-        <v>840.4755719724214</v>
+        <v>840.4755719724208</v>
       </c>
       <c r="M17" t="n">
-        <v>935.1910161247243</v>
+        <v>935.1910161247235</v>
       </c>
       <c r="N17" t="n">
-        <v>950.3233844777282</v>
+        <v>950.3233844777274</v>
       </c>
       <c r="O17" t="n">
-        <v>897.363423963806</v>
+        <v>897.3634239638052</v>
       </c>
       <c r="P17" t="n">
-        <v>765.8789211165449</v>
+        <v>765.8789211165442</v>
       </c>
       <c r="Q17" t="n">
-        <v>575.1431739482396</v>
+        <v>575.1431739482391</v>
       </c>
       <c r="R17" t="n">
-        <v>334.5564922320715</v>
+        <v>334.5564922320712</v>
       </c>
       <c r="S17" t="n">
-        <v>121.3651892104086</v>
+        <v>121.3651892104085</v>
       </c>
       <c r="T17" t="n">
-        <v>23.31436602385358</v>
+        <v>23.31436602385356</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4260763636569469</v>
+        <v>0.4260763636569465</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.849636906226859</v>
+        <v>2.849636906226857</v>
       </c>
       <c r="H18" t="n">
-        <v>27.52149327855941</v>
+        <v>27.52149327855938</v>
       </c>
       <c r="I18" t="n">
-        <v>98.11249874509144</v>
+        <v>98.11249874509136</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>166.2168859593132</v>
       </c>
       <c r="L18" t="n">
-        <v>491.9476815371452</v>
+        <v>618.7336624682481</v>
       </c>
       <c r="M18" t="n">
-        <v>722.0330003189721</v>
+        <v>722.0330003189714</v>
       </c>
       <c r="N18" t="n">
-        <v>741.143065361169</v>
+        <v>741.1430653611684</v>
       </c>
       <c r="O18" t="n">
-        <v>678.0011107547738</v>
+        <v>678.0011107547732</v>
       </c>
       <c r="P18" t="n">
-        <v>544.1556650144956</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>363.7536513983616</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>176.9274563357342</v>
       </c>
       <c r="S18" t="n">
-        <v>52.93075569241553</v>
+        <v>52.93075569241549</v>
       </c>
       <c r="T18" t="n">
-        <v>11.48603647729159</v>
+        <v>11.48603647729158</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1874761122517671</v>
+        <v>0.187476112251767</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.389039856672791</v>
+        <v>2.389039856672789</v>
       </c>
       <c r="H19" t="n">
-        <v>21.24073618023628</v>
+        <v>21.24073618023627</v>
       </c>
       <c r="I19" t="n">
-        <v>71.84494405339632</v>
+        <v>71.84494405339625</v>
       </c>
       <c r="J19" t="n">
-        <v>168.9051178667663</v>
+        <v>168.9051178667661</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5629942570751</v>
+        <v>277.5629942570749</v>
       </c>
       <c r="L19" t="n">
-        <v>355.1850710547893</v>
+        <v>355.185071054789</v>
       </c>
       <c r="M19" t="n">
-        <v>374.4928568055357</v>
+        <v>374.4928568055354</v>
       </c>
       <c r="N19" t="n">
-        <v>365.588253703392</v>
+        <v>365.5882537033916</v>
       </c>
       <c r="O19" t="n">
-        <v>337.6799244686233</v>
+        <v>337.679924468623</v>
       </c>
       <c r="P19" t="n">
-        <v>288.9435113924981</v>
+        <v>288.9435113924979</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.0495101801189</v>
+        <v>200.0495101801187</v>
       </c>
       <c r="R19" t="n">
-        <v>107.4199193736693</v>
+        <v>107.4199193736692</v>
       </c>
       <c r="S19" t="n">
-        <v>41.63444913856126</v>
+        <v>41.63444913856122</v>
       </c>
       <c r="T19" t="n">
-        <v>10.20771575123829</v>
+        <v>10.20771575123828</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1303112649094251</v>
+        <v>0.130311264909425</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.325954545711837</v>
+        <v>5.325954545711832</v>
       </c>
       <c r="H20" t="n">
-        <v>54.54443199127137</v>
+        <v>54.54443199127132</v>
       </c>
       <c r="I20" t="n">
-        <v>205.3288626235558</v>
+        <v>205.3288626235556</v>
       </c>
       <c r="J20" t="n">
-        <v>452.0337346241104</v>
+        <v>452.0337346241101</v>
       </c>
       <c r="K20" t="n">
-        <v>677.4813905440926</v>
+        <v>677.4813905440921</v>
       </c>
       <c r="L20" t="n">
-        <v>840.4755719724214</v>
+        <v>840.4755719724208</v>
       </c>
       <c r="M20" t="n">
-        <v>935.1910161247243</v>
+        <v>935.1910161247235</v>
       </c>
       <c r="N20" t="n">
-        <v>950.3233844777282</v>
+        <v>950.3233844777274</v>
       </c>
       <c r="O20" t="n">
-        <v>897.363423963806</v>
+        <v>897.3634239638052</v>
       </c>
       <c r="P20" t="n">
-        <v>765.8789211165449</v>
+        <v>765.8789211165442</v>
       </c>
       <c r="Q20" t="n">
-        <v>575.1431739482396</v>
+        <v>575.1431739482391</v>
       </c>
       <c r="R20" t="n">
-        <v>334.5564922320715</v>
+        <v>334.5564922320712</v>
       </c>
       <c r="S20" t="n">
-        <v>121.3651892104086</v>
+        <v>121.3651892104085</v>
       </c>
       <c r="T20" t="n">
-        <v>23.31436602385358</v>
+        <v>23.31436602385356</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4260763636569469</v>
+        <v>0.4260763636569465</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.849636906226859</v>
+        <v>2.849636906226857</v>
       </c>
       <c r="H21" t="n">
-        <v>27.52149327855941</v>
+        <v>27.52149327855938</v>
       </c>
       <c r="I21" t="n">
-        <v>98.11249874509144</v>
+        <v>98.11249874509136</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>460.1538683182205</v>
+        <v>166.2168859593132</v>
       </c>
       <c r="L21" t="n">
-        <v>618.7336624682486</v>
+        <v>618.7336624682481</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>722.0330003189714</v>
       </c>
       <c r="N21" t="n">
-        <v>741.143065361169</v>
+        <v>741.1430653611684</v>
       </c>
       <c r="O21" t="n">
-        <v>553.7818371926519</v>
+        <v>678.0011107547732</v>
       </c>
       <c r="P21" t="n">
-        <v>544.1556650144956</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>363.7536513983619</v>
+        <v>363.7536513983616</v>
       </c>
       <c r="R21" t="n">
-        <v>176.9274563357344</v>
+        <v>176.9274563357342</v>
       </c>
       <c r="S21" t="n">
-        <v>52.93075569241553</v>
+        <v>52.93075569241549</v>
       </c>
       <c r="T21" t="n">
-        <v>11.48603647729159</v>
+        <v>11.48603647729158</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1874761122517671</v>
+        <v>0.187476112251767</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.389039856672791</v>
+        <v>2.389039856672789</v>
       </c>
       <c r="H22" t="n">
-        <v>21.24073618023628</v>
+        <v>21.24073618023627</v>
       </c>
       <c r="I22" t="n">
-        <v>71.84494405339632</v>
+        <v>71.84494405339625</v>
       </c>
       <c r="J22" t="n">
-        <v>168.9051178667663</v>
+        <v>168.9051178667661</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5629942570751</v>
+        <v>277.5629942570749</v>
       </c>
       <c r="L22" t="n">
-        <v>355.1850710547893</v>
+        <v>355.185071054789</v>
       </c>
       <c r="M22" t="n">
-        <v>374.4928568055357</v>
+        <v>374.4928568055354</v>
       </c>
       <c r="N22" t="n">
-        <v>365.588253703392</v>
+        <v>365.5882537033916</v>
       </c>
       <c r="O22" t="n">
-        <v>337.6799244686233</v>
+        <v>337.679924468623</v>
       </c>
       <c r="P22" t="n">
-        <v>288.9435113924981</v>
+        <v>288.9435113924979</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.0495101801189</v>
+        <v>200.0495101801187</v>
       </c>
       <c r="R22" t="n">
-        <v>107.4199193736693</v>
+        <v>107.4199193736692</v>
       </c>
       <c r="S22" t="n">
-        <v>41.63444913856126</v>
+        <v>41.63444913856122</v>
       </c>
       <c r="T22" t="n">
-        <v>10.20771575123829</v>
+        <v>10.20771575123828</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1303112649094251</v>
+        <v>0.130311264909425</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32798,19 +32798,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>346.0352130058784</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33020,7 +33020,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33032,22 +33032,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>402.4253926747993</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
         <v>471.6886536848224</v>
@@ -33272,10 +33272,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>600.5355480942595</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,7 +33494,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
@@ -33506,22 +33506,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>391.6330708361143</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33731,7 +33731,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33746,19 +33746,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>220.0891643226145</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33968,34 +33968,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>252.7396269350879</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,10 +34202,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
@@ -34214,31 +34214,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>427.3161054158222</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>736.1260937887032</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="K8" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="L8" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>12.95906156908131</v>
+        <v>12.43546312184584</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.43546312184571</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.43546312184584</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908146</v>
       </c>
       <c r="N9" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="O9" t="n">
-        <v>3.03877634672196</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="P9" t="n">
-        <v>9.396686775123744</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12.43546312184571</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="N10" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="O10" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908145</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12.43546312184584</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>270.9878300974241</v>
+        <v>270.9878300974238</v>
       </c>
       <c r="K11" t="n">
-        <v>457.391539499112</v>
+        <v>457.3915394991115</v>
       </c>
       <c r="L11" t="n">
-        <v>604.709157002434</v>
+        <v>604.7091570024336</v>
       </c>
       <c r="M11" t="n">
-        <v>704.8447828974514</v>
+        <v>704.8447828974508</v>
       </c>
       <c r="N11" t="n">
-        <v>720.9103208811371</v>
+        <v>720.9103208811364</v>
       </c>
       <c r="O11" t="n">
-        <v>667.2652125421191</v>
+        <v>667.2652125421184</v>
       </c>
       <c r="P11" t="n">
-        <v>534.6459253612752</v>
+        <v>534.6459253612747</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.8374840737899</v>
+        <v>352.8374840737896</v>
       </c>
       <c r="R11" t="n">
-        <v>118.9709544179393</v>
+        <v>118.9709544179391</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.3124293438615</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1792826883743</v>
+        <v>480.1792826883739</v>
       </c>
       <c r="M12" t="n">
-        <v>579.8989663969537</v>
+        <v>579.898966396953</v>
       </c>
       <c r="N12" t="n">
-        <v>570.8842006030366</v>
+        <v>609.8013532778351</v>
       </c>
       <c r="O12" t="n">
-        <v>535.4048663103292</v>
+        <v>535.4048663103288</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.62339935672436</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>223.7718773123401</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>75.54593775009349</v>
+        <v>75.54593775009337</v>
       </c>
       <c r="K13" t="n">
-        <v>255.2935024311922</v>
+        <v>255.293502431192</v>
       </c>
       <c r="L13" t="n">
-        <v>382.7750963151054</v>
+        <v>382.7750963151052</v>
       </c>
       <c r="M13" t="n">
-        <v>414.0767337673762</v>
+        <v>414.076733767376</v>
       </c>
       <c r="N13" t="n">
-        <v>409.7204260826205</v>
+        <v>409.7204260826202</v>
       </c>
       <c r="O13" t="n">
-        <v>362.2650523826629</v>
+        <v>362.2650523826627</v>
       </c>
       <c r="P13" t="n">
-        <v>286.2220706573916</v>
+        <v>286.2220706573914</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.8874669284245</v>
+        <v>113.8874669284243</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>270.9878300974241</v>
+        <v>270.9878300974238</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3915394991121</v>
+        <v>457.3915394991115</v>
       </c>
       <c r="L14" t="n">
-        <v>604.7091570024343</v>
+        <v>604.7091570024336</v>
       </c>
       <c r="M14" t="n">
-        <v>704.8447828974516</v>
+        <v>704.8447828974508</v>
       </c>
       <c r="N14" t="n">
-        <v>720.9103208811373</v>
+        <v>720.9103208811364</v>
       </c>
       <c r="O14" t="n">
-        <v>667.2652125421192</v>
+        <v>667.2652125421184</v>
       </c>
       <c r="P14" t="n">
-        <v>534.6459253612754</v>
+        <v>534.6459253612747</v>
       </c>
       <c r="Q14" t="n">
-        <v>352.8374840737901</v>
+        <v>352.8374840737896</v>
       </c>
       <c r="R14" t="n">
-        <v>118.9709544179394</v>
+        <v>118.9709544179391</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>480.1792826883744</v>
+        <v>480.1792826883739</v>
       </c>
       <c r="M15" t="n">
-        <v>579.8989663969537</v>
+        <v>579.898966396953</v>
       </c>
       <c r="N15" t="n">
-        <v>609.8013532778357</v>
+        <v>609.8013532778351</v>
       </c>
       <c r="O15" t="n">
-        <v>535.4048663103293</v>
+        <v>535.4048663103288</v>
       </c>
       <c r="P15" t="n">
-        <v>252.1473242972918</v>
+        <v>28.37544698495411</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>223.7718773123401</v>
       </c>
       <c r="R15" t="n">
-        <v>31.24795237177042</v>
+        <v>31.24795237177025</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.54593775009351</v>
+        <v>75.54593775009337</v>
       </c>
       <c r="K16" t="n">
-        <v>255.2935024311923</v>
+        <v>255.293502431192</v>
       </c>
       <c r="L16" t="n">
-        <v>382.7750963151054</v>
+        <v>382.7750963151052</v>
       </c>
       <c r="M16" t="n">
-        <v>414.0767337673763</v>
+        <v>414.076733767376</v>
       </c>
       <c r="N16" t="n">
-        <v>409.7204260826205</v>
+        <v>409.7204260826202</v>
       </c>
       <c r="O16" t="n">
-        <v>362.265052382663</v>
+        <v>362.2650523826627</v>
       </c>
       <c r="P16" t="n">
-        <v>286.2220706573916</v>
+        <v>286.2220706573914</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.8874669284245</v>
+        <v>113.8874669284243</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>270.9878300974241</v>
+        <v>270.9878300974238</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3915394991121</v>
+        <v>457.3915394991115</v>
       </c>
       <c r="L17" t="n">
-        <v>604.7091570024343</v>
+        <v>604.7091570024336</v>
       </c>
       <c r="M17" t="n">
-        <v>704.8447828974516</v>
+        <v>704.8447828974508</v>
       </c>
       <c r="N17" t="n">
-        <v>720.9103208811373</v>
+        <v>720.9103208811364</v>
       </c>
       <c r="O17" t="n">
-        <v>667.2652125421192</v>
+        <v>667.2652125421184</v>
       </c>
       <c r="P17" t="n">
-        <v>534.6459253612754</v>
+        <v>534.6459253612747</v>
       </c>
       <c r="Q17" t="n">
-        <v>352.8374840737901</v>
+        <v>352.8374840737896</v>
       </c>
       <c r="R17" t="n">
-        <v>118.9709544179394</v>
+        <v>118.9709544179391</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.37544698495418</v>
       </c>
       <c r="L18" t="n">
-        <v>353.393301757271</v>
+        <v>480.1792826883739</v>
       </c>
       <c r="M18" t="n">
-        <v>579.8989663969537</v>
+        <v>579.898966396953</v>
       </c>
       <c r="N18" t="n">
-        <v>609.8013532778357</v>
+        <v>609.8013532778351</v>
       </c>
       <c r="O18" t="n">
-        <v>535.4048663103293</v>
+        <v>535.4048663103288</v>
       </c>
       <c r="P18" t="n">
-        <v>410.1812576001654</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>223.7718773123401</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.24795237177025</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>75.54593775009359</v>
+        <v>75.54593775009337</v>
       </c>
       <c r="K19" t="n">
-        <v>255.2935024311923</v>
+        <v>255.293502431192</v>
       </c>
       <c r="L19" t="n">
-        <v>382.7750963151055</v>
+        <v>382.7750963151052</v>
       </c>
       <c r="M19" t="n">
-        <v>414.0767337673763</v>
+        <v>414.076733767376</v>
       </c>
       <c r="N19" t="n">
-        <v>409.7204260826206</v>
+        <v>409.7204260826202</v>
       </c>
       <c r="O19" t="n">
-        <v>362.265052382663</v>
+        <v>362.2650523826627</v>
       </c>
       <c r="P19" t="n">
-        <v>286.2220706573917</v>
+        <v>286.2220706573914</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.8874669284245</v>
+        <v>113.8874669284243</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>270.9878300974241</v>
+        <v>270.9878300974238</v>
       </c>
       <c r="K20" t="n">
-        <v>457.3915394991121</v>
+        <v>457.3915394991115</v>
       </c>
       <c r="L20" t="n">
-        <v>604.7091570024343</v>
+        <v>604.7091570024336</v>
       </c>
       <c r="M20" t="n">
-        <v>704.8447828974516</v>
+        <v>704.8447828974508</v>
       </c>
       <c r="N20" t="n">
-        <v>720.9103208811373</v>
+        <v>720.9103208811364</v>
       </c>
       <c r="O20" t="n">
-        <v>667.2652125421192</v>
+        <v>667.2652125421184</v>
       </c>
       <c r="P20" t="n">
-        <v>534.6459253612754</v>
+        <v>534.6459253612747</v>
       </c>
       <c r="Q20" t="n">
-        <v>352.8374840737901</v>
+        <v>352.8374840737896</v>
       </c>
       <c r="R20" t="n">
-        <v>118.9709544179394</v>
+        <v>118.9709544179391</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.3124293438615</v>
+        <v>28.37544698495417</v>
       </c>
       <c r="L21" t="n">
-        <v>480.1792826883744</v>
+        <v>480.1792826883739</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>579.898966396953</v>
       </c>
       <c r="N21" t="n">
-        <v>609.8013532778357</v>
+        <v>609.8013532778351</v>
       </c>
       <c r="O21" t="n">
-        <v>411.1855927482074</v>
+        <v>535.4048663103288</v>
       </c>
       <c r="P21" t="n">
-        <v>410.1812576001654</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>223.7718773123404</v>
+        <v>223.7718773123401</v>
       </c>
       <c r="R21" t="n">
-        <v>31.24795237177042</v>
+        <v>31.24795237177025</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>75.54593775009359</v>
+        <v>75.54593775009337</v>
       </c>
       <c r="K22" t="n">
-        <v>255.2935024311923</v>
+        <v>255.293502431192</v>
       </c>
       <c r="L22" t="n">
-        <v>382.7750963151055</v>
+        <v>382.7750963151052</v>
       </c>
       <c r="M22" t="n">
-        <v>414.0767337673763</v>
+        <v>414.076733767376</v>
       </c>
       <c r="N22" t="n">
-        <v>409.7204260826206</v>
+        <v>409.7204260826202</v>
       </c>
       <c r="O22" t="n">
-        <v>362.265052382663</v>
+        <v>362.2650523826627</v>
       </c>
       <c r="P22" t="n">
-        <v>286.2220706573916</v>
+        <v>286.2220706573914</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.8874669284246</v>
+        <v>113.8874669284243</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955288</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
         <v>728.2874363020583</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36446,19 +36446,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>214.6935009225451</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066059</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
         <v>391.678604124378</v>
@@ -36525,7 +36525,7 @@
         <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
         <v>370.729754560636</v>
@@ -36601,7 +36601,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36680,22 +36680,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>260.291358752781</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066059</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
         <v>391.678604124378</v>
@@ -36762,7 +36762,7 @@
         <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
         <v>370.729754560636</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36853,7 +36853,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
         <v>333.8472147104634</v>
@@ -36920,10 +36920,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>469.1938360109262</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
@@ -37154,22 +37154,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>260.291358752781</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845857</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37394,19 +37394,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>86.11475690828422</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760976</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K37" t="n">
         <v>265.843491231155</v>
@@ -37470,19 +37470,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M37" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P37" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380652</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
         <v>625.7775560664393</v>
@@ -37561,7 +37561,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404136</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845842</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>114.8981879607289</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.37217397760976</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K40" t="n">
         <v>265.843491231155</v>
@@ -37707,19 +37707,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M40" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N40" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O40" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P40" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134861</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
@@ -37862,22 +37862,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>295.9743933324889</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.37217397760973</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K43" t="n">
-        <v>265.8434912311549</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913272</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M43" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>604.7843817053699</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760983</v>
+        <v>83.3721739776098</v>
       </c>
       <c r="K46" t="n">
         <v>265.843491231155</v>
@@ -38181,19 +38181,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M46" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N46" t="n">
         <v>422.4769647878654</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P46" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
